--- a/doc/特征工程流程图v1.8.xlsx
+++ b/doc/特征工程流程图v1.8.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{746CEE97-805B-40D3-B8F1-8AB8BDD3D8FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6C46718-7251-4FEB-96C9-2BEED7E1CBE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="824" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="824" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.功能" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="267">
   <si>
     <t>过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,6 +1045,10 @@
   </si>
   <si>
     <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1303,9 +1307,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,6 +1315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3377,7 +3381,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3599,34 +3603,34 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="17" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
@@ -3695,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42112F6E-780D-4F54-AA89-CB41E0B2B8FB}">
   <dimension ref="B4:K123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3777,16 +3781,16 @@
       <c r="E9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>260</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3913,16 +3917,16 @@
       <c r="E18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>260</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="42" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4037,16 +4041,16 @@
       <c r="E27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="43" t="s">
         <v>260</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I27" s="43"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
@@ -4215,13 +4219,13 @@
       <c r="C41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="43" t="s">
         <v>260</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -4235,13 +4239,13 @@
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="43">
         <v>7</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="43">
         <v>12</v>
       </c>
       <c r="G42" s="21" t="s">
@@ -4253,13 +4257,13 @@
       <c r="C43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="43">
         <v>3</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="43">
         <v>12</v>
       </c>
       <c r="G43" s="21" t="s">
@@ -4410,13 +4414,13 @@
       <c r="C57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="43" t="s">
         <v>260</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -4430,13 +4434,13 @@
       <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="43">
         <v>7</v>
       </c>
-      <c r="F58" s="44">
+      <c r="F58" s="43">
         <v>12</v>
       </c>
       <c r="G58" s="21" t="s">
@@ -4448,13 +4452,13 @@
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="43">
         <v>7</v>
       </c>
-      <c r="F59" s="44">
+      <c r="F59" s="43">
         <v>12</v>
       </c>
       <c r="G59" s="21" t="s">
@@ -4466,13 +4470,13 @@
       <c r="C60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="44">
+      <c r="E60" s="43">
         <v>7</v>
       </c>
-      <c r="F60" s="44">
+      <c r="F60" s="43">
         <v>12</v>
       </c>
       <c r="G60" s="21" t="s">
@@ -4484,13 +4488,13 @@
       <c r="C61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E61" s="43">
         <v>3</v>
       </c>
-      <c r="F61" s="44">
+      <c r="F61" s="43">
         <v>12</v>
       </c>
       <c r="G61" s="21" t="s">
@@ -4502,13 +4506,13 @@
       <c r="C62" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E62" s="43">
         <v>3</v>
       </c>
-      <c r="F62" s="44">
+      <c r="F62" s="43">
         <v>12</v>
       </c>
       <c r="G62" s="21" t="s">
@@ -4520,13 +4524,13 @@
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="43">
         <v>3</v>
       </c>
-      <c r="F63" s="44">
+      <c r="F63" s="43">
         <v>12</v>
       </c>
       <c r="G63" s="21" t="s">
@@ -4534,7 +4538,7 @@
       </c>
       <c r="H63" s="20"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="35" t="s">
         <v>188</v>
       </c>
@@ -4544,7 +4548,7 @@
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
         <v>195</v>
       </c>
@@ -4564,7 +4568,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>189</v>
       </c>
@@ -4580,7 +4584,7 @@
       </c>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>189</v>
       </c>
@@ -4596,7 +4600,7 @@
       </c>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>189</v>
       </c>
@@ -4612,7 +4616,7 @@
       </c>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>189</v>
       </c>
@@ -4626,7 +4630,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="33" t="s">
         <v>34</v>
       </c>
@@ -4636,7 +4640,7 @@
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="33" t="s">
         <v>215</v>
       </c>
@@ -4646,107 +4650,170 @@
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C74" s="33" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="E76" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="21" t="s">
+      <c r="E76" s="43">
+        <v>7</v>
+      </c>
+      <c r="F76" s="43">
+        <v>12</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H76" s="21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="21" t="s">
+      <c r="E77" s="43">
+        <v>7</v>
+      </c>
+      <c r="F77" s="43">
+        <v>12</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" s="21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E78" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="21" t="s">
+      <c r="E78" s="43">
+        <v>7</v>
+      </c>
+      <c r="F78" s="43">
+        <v>12</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H78" s="21" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D79" s="45" t="s">
+      <c r="D79" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="21" t="s">
+      <c r="E79" s="43">
+        <v>3</v>
+      </c>
+      <c r="F79" s="43">
+        <v>12</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H79" s="21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D80" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E80" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="21" t="s">
+      <c r="E80" s="43">
+        <v>3</v>
+      </c>
+      <c r="F80" s="43">
+        <v>12</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H80" s="21" t="s">
         <v>245</v>
+      </c>
+      <c r="I80" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="E81" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="21" t="s">
+      <c r="E81" s="43">
+        <v>3</v>
+      </c>
+      <c r="F81" s="43">
+        <v>12</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H81" s="21" t="s">
         <v>246</v>
+      </c>
+      <c r="I81" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -4890,7 +4957,7 @@
       <c r="C93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="43" t="s">
         <v>243</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -4899,10 +4966,10 @@
       <c r="F93" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G93" s="43" t="s">
+      <c r="G93" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="H93" s="43" t="s">
+      <c r="H93" s="42" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4910,7 +4977,7 @@
       <c r="C94" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="43" t="s">
         <v>251</v>
       </c>
       <c r="E94" s="21" t="s">
@@ -4930,7 +4997,7 @@
       <c r="C95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D95" s="44" t="s">
+      <c r="D95" s="43" t="s">
         <v>242</v>
       </c>
       <c r="E95" s="21" t="s">
@@ -4948,7 +5015,7 @@
       <c r="C96" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="43" t="s">
         <v>128</v>
       </c>
       <c r="E96" s="21" t="s">
@@ -4964,7 +5031,7 @@
       <c r="C97" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D97" s="44" t="s">
+      <c r="D97" s="43" t="s">
         <v>127</v>
       </c>
       <c r="E97" s="21" t="s">
@@ -4980,7 +5047,7 @@
       <c r="C98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="44" t="s">
         <v>265</v>
       </c>
       <c r="E98" s="21" t="s">
@@ -5000,7 +5067,7 @@
       <c r="C99" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D99" s="45" t="s">
+      <c r="D99" s="44" t="s">
         <v>262</v>
       </c>
       <c r="E99" s="21" t="s">
@@ -5016,7 +5083,7 @@
       <c r="C100" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D100" s="45" t="s">
+      <c r="D100" s="44" t="s">
         <v>263</v>
       </c>
       <c r="E100" s="21" t="s">
@@ -5032,7 +5099,7 @@
       <c r="C101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="44" t="s">
         <v>264</v>
       </c>
       <c r="E101" s="21" t="s">
@@ -5175,7 +5242,7 @@
       <c r="C114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D114" s="44" t="s">
+      <c r="D114" s="43" t="s">
         <v>243</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -5512,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AB4487-DBA3-4908-8A9A-057887D4E07A}">
   <dimension ref="B3:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
@@ -5561,23 +5628,23 @@
       </c>
       <c r="D4">
         <f ca="1">FLOOR(RAND()*10,1)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <f ca="1">FLOOR(RAND()*1000,1)</f>
-        <v>118</v>
+        <v>559</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:H19" ca="1" si="0">FLOOR(RAND()*1000,1)</f>
-        <v>679</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>851</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
         <v>135</v>
@@ -5595,23 +5662,23 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D68" ca="1" si="1">FLOOR(RAND()*10,1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:H68" ca="1" si="2">FLOOR(RAND()*1000,1)</f>
-        <v>363</v>
+        <v>731</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>881</v>
+        <v>936</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>690</v>
       </c>
       <c r="I5" t="s">
         <v>136</v>
@@ -5629,23 +5696,23 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>369</v>
+        <v>895</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
         <v>136</v>
@@ -5663,23 +5730,23 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>975</v>
+        <v>302</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>672</v>
+        <v>387</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="I7" t="s">
         <v>137</v>
@@ -5701,19 +5768,19 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>499</v>
+        <v>752</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>634</v>
+        <v>285</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>780</v>
+        <v>968</v>
       </c>
       <c r="I8" t="s">
         <v>136</v>
@@ -5731,23 +5798,23 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>520</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>911</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>583</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>729</v>
+        <v>453</v>
       </c>
       <c r="I9" t="s">
         <v>136</v>
@@ -5765,23 +5832,23 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>376</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>999</v>
+        <v>472</v>
       </c>
       <c r="I10" t="s">
         <v>136</v>
@@ -5803,19 +5870,19 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>926</v>
+        <v>169</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>429</v>
+        <v>675</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>137</v>
@@ -5833,23 +5900,23 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>628</v>
+        <v>336</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>714</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>789</v>
+        <v>714</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="I12" t="s">
         <v>136</v>
@@ -5867,23 +5934,23 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>485</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>779</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>957</v>
+        <v>857</v>
       </c>
       <c r="I13" t="s">
         <v>136</v>
@@ -5901,23 +5968,23 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>545</v>
+        <v>399</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>766</v>
+        <v>450</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="I14" t="s">
         <v>136</v>
@@ -5935,23 +6002,23 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>896</v>
+        <v>390</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>584</v>
+        <v>132</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>949</v>
+        <v>247</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="I15" t="s">
         <v>136</v>
@@ -5969,19 +6036,19 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>683</v>
+        <v>858</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>616</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
         <v>136</v>
@@ -5999,23 +6066,23 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>745</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="I17" t="s">
         <v>135</v>
@@ -6033,23 +6100,23 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>847</v>
+        <v>676</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>944</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="I18" t="s">
         <v>136</v>
@@ -6067,23 +6134,23 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>962</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>365</v>
+        <v>234</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>810</v>
+        <v>688</v>
       </c>
       <c r="I19" t="s">
         <v>136</v>
@@ -6101,23 +6168,23 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>536</v>
+        <v>288</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>847</v>
+        <v>989</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>958</v>
+        <v>208</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>658</v>
+        <v>978</v>
       </c>
       <c r="I20" t="s">
         <v>136</v>
@@ -6139,19 +6206,19 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>883</v>
+        <v>128</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>918</v>
+        <v>425</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>710</v>
+        <v>387</v>
       </c>
       <c r="I21" t="s">
         <v>136</v>
@@ -6169,23 +6236,23 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>963</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I22" t="s">
         <v>135</v>
@@ -6203,23 +6270,23 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>508</v>
+        <v>238</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>745</v>
+        <v>987</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>641</v>
+        <v>989</v>
       </c>
       <c r="I23" t="s">
         <v>137</v>
@@ -6237,23 +6304,23 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>876</v>
+        <v>239</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>898</v>
+        <v>394</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>798</v>
+        <v>264</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>855</v>
+        <v>272</v>
       </c>
       <c r="I24" t="s">
         <v>136</v>
@@ -6271,23 +6338,23 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>188</v>
+        <v>950</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>368</v>
+        <v>459</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="I25" t="s">
         <v>135</v>
@@ -6305,23 +6372,23 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>625</v>
+        <v>792</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>926</v>
+        <v>992</v>
       </c>
       <c r="I26" t="s">
         <v>136</v>
@@ -6339,23 +6406,23 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>651</v>
+        <v>876</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>891</v>
+        <v>312</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>945</v>
+        <v>297</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>498</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
         <v>135</v>
@@ -6373,23 +6440,23 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>691</v>
+        <v>891</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>750</v>
+        <v>253</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>718</v>
+        <v>211</v>
       </c>
       <c r="I28" t="s">
         <v>135</v>
@@ -6407,19 +6474,19 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>861</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>528</v>
+        <v>705</v>
       </c>
       <c r="I29" t="s">
         <v>137</v>
@@ -6437,23 +6504,23 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>534</v>
+        <v>894</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="I30" t="s">
         <v>135</v>
@@ -6471,23 +6538,23 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>664</v>
+        <v>780</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>934</v>
+        <v>507</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I31" t="s">
         <v>135</v>
@@ -6505,23 +6572,23 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>692</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>549</v>
+        <v>111</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>519</v>
       </c>
       <c r="I32" t="s">
         <v>137</v>
@@ -6539,23 +6606,23 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>567</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>836</v>
+        <v>213</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>738</v>
+        <v>945</v>
       </c>
       <c r="I33" t="s">
         <v>136</v>
@@ -6577,19 +6644,19 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>867</v>
+        <v>619</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>630</v>
+        <v>323</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>861</v>
+        <v>895</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>332</v>
       </c>
       <c r="I34" t="s">
         <v>136</v>
@@ -6607,23 +6674,23 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>387</v>
+        <v>724</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>647</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="I35" t="s">
         <v>136</v>
@@ -6641,23 +6708,23 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>364</v>
+        <v>517</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>647</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>471</v>
+        <v>656</v>
       </c>
       <c r="I36" t="s">
         <v>136</v>
@@ -6675,23 +6742,23 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>701</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>951</v>
+        <v>475</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>278</v>
+        <v>815</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="I37" t="s">
         <v>136</v>
@@ -6709,23 +6776,23 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>718</v>
+        <v>432</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>890</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>603</v>
+        <v>859</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>759</v>
+        <v>315</v>
       </c>
       <c r="I38" t="s">
         <v>136</v>
@@ -6747,11 +6814,11 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>830</v>
+        <v>300</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>304</v>
+        <v>860</v>
       </c>
       <c r="I39" t="s">
         <v>136</v>
@@ -6769,23 +6836,23 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>153</v>
+        <v>700</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>968</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>399</v>
+        <v>145</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>506</v>
+        <v>126</v>
       </c>
       <c r="I40" t="s">
         <v>135</v>
@@ -6803,23 +6870,23 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>561</v>
+        <v>987</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>618</v>
+        <v>84</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>572</v>
+        <v>202</v>
       </c>
       <c r="I41" t="s">
         <v>137</v>
@@ -6837,23 +6904,23 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>697</v>
+        <v>487</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>506</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>959</v>
+        <v>408</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="I42" t="s">
         <v>136</v>
@@ -6875,19 +6942,19 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>821</v>
+        <v>223</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>602</v>
+        <v>714</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>723</v>
+        <v>804</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>459</v>
+        <v>8</v>
       </c>
       <c r="I43" t="s">
         <v>136</v>
@@ -6905,19 +6972,19 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>452</v>
+        <v>804</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>615</v>
+        <v>669</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>289</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>274</v>
+        <v>900</v>
       </c>
       <c r="I44" t="s">
         <v>136</v>
@@ -6935,23 +7002,23 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>569</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>630</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>946</v>
+        <v>662</v>
       </c>
       <c r="I45" t="s">
         <v>136</v>
@@ -6973,19 +7040,19 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <v>816</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>944</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>907</v>
+        <v>954</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>545</v>
+        <v>397</v>
       </c>
       <c r="I46" t="s">
         <v>136</v>
@@ -7003,23 +7070,23 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>962</v>
+        <v>167</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>744</v>
+        <v>804</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>581</v>
+        <v>106</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>956</v>
+        <v>247</v>
       </c>
       <c r="I47" t="s">
         <v>136</v>
@@ -7037,23 +7104,23 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="2"/>
-        <v>555</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="2"/>
-        <v>426</v>
-      </c>
-      <c r="G48">
-        <f t="shared" ca="1" si="2"/>
-        <v>775</v>
-      </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>743</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
         <v>135</v>
@@ -7071,23 +7138,23 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>637</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>677</v>
       </c>
       <c r="I49" t="s">
         <v>135</v>
@@ -7105,19 +7172,19 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>549</v>
+        <v>779</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>512</v>
+        <v>272</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>188</v>
+        <v>343</v>
       </c>
       <c r="I50" t="s">
         <v>135</v>
@@ -7135,23 +7202,23 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>785</v>
+        <v>182</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>850</v>
+        <v>270</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>583</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>656</v>
+        <v>186</v>
       </c>
       <c r="I51" t="s">
         <v>137</v>
@@ -7169,23 +7236,23 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>918</v>
+        <v>415</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>691</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>900</v>
+        <v>513</v>
       </c>
       <c r="I52" t="s">
         <v>136</v>
@@ -7203,23 +7270,23 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>491</v>
+        <v>826</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>947</v>
+        <v>727</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>644</v>
+        <v>784</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>929</v>
+        <v>361</v>
       </c>
       <c r="I53" t="s">
         <v>135</v>
@@ -7237,23 +7304,23 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>454</v>
+        <v>589</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>672</v>
+        <v>312</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>776</v>
+        <v>348</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="I54" t="s">
         <v>135</v>
@@ -7271,19 +7338,19 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>421</v>
+        <v>157</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>990</v>
+        <v>528</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="I55" t="s">
         <v>135</v>
@@ -7301,23 +7368,23 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>398</v>
+        <v>30</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>757</v>
+        <v>700</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>858</v>
+        <v>75</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>711</v>
+        <v>393</v>
       </c>
       <c r="I56" t="s">
         <v>136</v>
@@ -7335,23 +7402,23 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>764</v>
+        <v>490</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>543</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>918</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="I57" t="s">
         <v>136</v>
@@ -7369,23 +7436,23 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>966</v>
+        <v>862</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>494</v>
+        <v>187</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>981</v>
+        <v>434</v>
       </c>
       <c r="I58" t="s">
         <v>135</v>
@@ -7407,19 +7474,19 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>618</v>
+        <v>925</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>880</v>
+        <v>209</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="I59" t="s">
         <v>136</v>
@@ -7437,19 +7504,19 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>941</v>
+        <v>995</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>640</v>
+        <v>381</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="I60" t="s">
         <v>137</v>
@@ -7467,23 +7534,23 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>600</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>460</v>
+        <v>204</v>
       </c>
       <c r="I61" t="s">
         <v>136</v>
@@ -7501,23 +7568,23 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>606</v>
+        <v>524</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>397</v>
+        <v>119</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>885</v>
+        <v>636</v>
       </c>
       <c r="I62" t="s">
         <v>136</v>
@@ -7535,23 +7602,23 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>875</v>
+        <v>136</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>542</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>601</v>
+        <v>977</v>
       </c>
       <c r="I63" t="s">
         <v>135</v>
@@ -7569,23 +7636,23 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>509</v>
+        <v>704</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>576</v>
+        <v>277</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>808</v>
+        <v>341</v>
       </c>
       <c r="I64" t="s">
         <v>136</v>
@@ -7603,23 +7670,23 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>755</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>602</v>
+        <v>129</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>341</v>
+        <v>799</v>
       </c>
       <c r="I65" t="s">
         <v>135</v>
@@ -7637,23 +7704,23 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>354</v>
+        <v>896</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>883</v>
+        <v>674</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>319</v>
+        <v>684</v>
       </c>
       <c r="I66" t="s">
         <v>136</v>
@@ -7671,15 +7738,15 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>874</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>792</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
@@ -7687,7 +7754,7 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="2"/>
-        <v>535</v>
+        <v>950</v>
       </c>
       <c r="I67" t="s">
         <v>136</v>
@@ -7705,23 +7772,23 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>873</v>
+        <v>145</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="2"/>
-        <v>677</v>
+        <v>169</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>289</v>
+        <v>539</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>349</v>
+        <v>515</v>
       </c>
       <c r="I68" t="s">
         <v>136</v>
@@ -7739,23 +7806,23 @@
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D114" ca="1" si="3">FLOOR(RAND()*10,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:H97" ca="1" si="4">FLOOR(RAND()*1000,1)</f>
-        <v>312</v>
+        <v>747</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="4"/>
-        <v>236</v>
+        <v>588</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="4"/>
-        <v>572</v>
+        <v>691</v>
       </c>
       <c r="I69" t="s">
         <v>137</v>
@@ -7773,23 +7840,23 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>819</v>
+        <v>118</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="4"/>
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="I70" t="s">
         <v>136</v>
@@ -7807,23 +7874,23 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>677</v>
+        <v>890</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="4"/>
-        <v>552</v>
+        <v>207</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="4"/>
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="I71" t="s">
         <v>136</v>
@@ -7841,23 +7908,23 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="4"/>
-        <v>912</v>
+        <v>402</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="4"/>
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="I72" t="s">
         <v>135</v>
@@ -7879,19 +7946,19 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>622</v>
+        <v>152</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="4"/>
-        <v>317</v>
+        <v>799</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="4"/>
-        <v>981</v>
+        <v>65</v>
       </c>
       <c r="I73" t="s">
         <v>135</v>
@@ -7913,19 +7980,19 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>971</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>697</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="4"/>
-        <v>814</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
         <v>136</v>
@@ -7943,23 +8010,23 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>867</v>
+        <v>366</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="4"/>
-        <v>276</v>
+        <v>520</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="4"/>
-        <v>974</v>
+        <v>113</v>
       </c>
       <c r="I75" t="s">
         <v>136</v>
@@ -7977,23 +8044,23 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>680</v>
+        <v>140</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="4"/>
-        <v>404</v>
+        <v>843</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="4"/>
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s">
         <v>136</v>
@@ -8011,23 +8078,23 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>466</v>
+        <v>846</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>597</v>
+        <v>814</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="4"/>
-        <v>796</v>
+        <v>574</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="4"/>
-        <v>946</v>
+        <v>489</v>
       </c>
       <c r="I77" t="s">
         <v>137</v>
@@ -8045,23 +8112,23 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>867</v>
+        <v>305</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>566</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="4"/>
-        <v>144</v>
+        <v>619</v>
       </c>
       <c r="I78" t="s">
         <v>135</v>
@@ -8079,23 +8146,23 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>108</v>
+        <v>611</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>975</v>
+        <v>459</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="4"/>
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="4"/>
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="I79" t="s">
         <v>136</v>
@@ -8113,23 +8180,23 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>713</v>
+        <v>828</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="4"/>
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="4"/>
-        <v>248</v>
+        <v>844</v>
       </c>
       <c r="I80" t="s">
         <v>135</v>
@@ -8147,23 +8214,23 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>336</v>
+        <v>219</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>976</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="4"/>
-        <v>509</v>
+        <v>975</v>
       </c>
       <c r="I81" t="s">
         <v>137</v>
@@ -8181,23 +8248,23 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>338</v>
+        <v>998</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>422</v>
+        <v>683</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="4"/>
-        <v>231</v>
+        <v>410</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="4"/>
-        <v>571</v>
+        <v>165</v>
       </c>
       <c r="I82" t="s">
         <v>136</v>
@@ -8215,23 +8282,23 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>283</v>
+        <v>822</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>745</v>
+        <v>804</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="4"/>
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="4"/>
-        <v>142</v>
+        <v>636</v>
       </c>
       <c r="I83" t="s">
         <v>137</v>
@@ -8249,23 +8316,23 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>179</v>
+        <v>587</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>124</v>
+        <v>737</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="4"/>
-        <v>840</v>
+        <v>901</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="4"/>
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="I84" t="s">
         <v>137</v>
@@ -8283,23 +8350,23 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>429</v>
+        <v>714</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="4"/>
-        <v>686</v>
+        <v>816</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="4"/>
-        <v>827</v>
+        <v>930</v>
       </c>
       <c r="I85" t="s">
         <v>135</v>
@@ -8317,23 +8384,23 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>852</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>746</v>
+        <v>987</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="4"/>
-        <v>883</v>
+        <v>751</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="4"/>
-        <v>496</v>
+        <v>316</v>
       </c>
       <c r="I86" t="s">
         <v>136</v>
@@ -8351,23 +8418,23 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="4"/>
-        <v>341</v>
+        <v>925</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="4"/>
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="I87" t="s">
         <v>136</v>
@@ -8385,23 +8452,23 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>734</v>
+        <v>265</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>750</v>
+        <v>93</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="4"/>
-        <v>446</v>
+        <v>555</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="4"/>
-        <v>674</v>
+        <v>801</v>
       </c>
       <c r="I88" t="s">
         <v>135</v>
@@ -8419,23 +8486,23 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>728</v>
+        <v>477</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>835</v>
+        <v>880</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="4"/>
-        <v>958</v>
+        <v>437</v>
       </c>
       <c r="I89" t="s">
         <v>137</v>
@@ -8453,23 +8520,23 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>557</v>
+        <v>446</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>295</v>
+        <v>984</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="4"/>
-        <v>157</v>
+        <v>649</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="4"/>
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="I90" t="s">
         <v>136</v>
@@ -8487,23 +8554,23 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>953</v>
+        <v>571</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="4"/>
-        <v>133</v>
+        <v>586</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="4"/>
-        <v>866</v>
+        <v>790</v>
       </c>
       <c r="I91" t="s">
         <v>136</v>
@@ -8525,19 +8592,19 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>980</v>
+        <v>626</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="4"/>
-        <v>357</v>
+        <v>987</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="4"/>
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="I92" t="s">
         <v>135</v>
@@ -8555,23 +8622,23 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>296</v>
+        <v>548</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="4"/>
-        <v>908</v>
+        <v>451</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="4"/>
-        <v>617</v>
+        <v>950</v>
       </c>
       <c r="I93" t="s">
         <v>136</v>
@@ -8589,23 +8656,23 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>562</v>
+        <v>955</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>877</v>
+        <v>635</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="4"/>
-        <v>359</v>
+        <v>783</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="4"/>
-        <v>380</v>
+        <v>983</v>
       </c>
       <c r="I94" t="s">
         <v>136</v>
@@ -8623,23 +8690,23 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>738</v>
+        <v>854</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>534</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="4"/>
-        <v>496</v>
+        <v>294</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="4"/>
-        <v>468</v>
+        <v>663</v>
       </c>
       <c r="I95" t="s">
         <v>137</v>
@@ -8657,23 +8724,23 @@
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>812</v>
+        <v>97</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="4"/>
-        <v>651</v>
+        <v>811</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="4"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="I96" t="s">
         <v>137</v>
@@ -8695,19 +8762,19 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>407</v>
+        <v>968</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="4"/>
-        <v>702</v>
+        <v>286</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="4"/>
-        <v>955</v>
+        <v>262</v>
       </c>
       <c r="I97" t="s">
         <v>136</v>
@@ -8725,23 +8792,23 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <f t="shared" ref="E98:H114" ca="1" si="5">FLOOR(RAND()*1000,1)</f>
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>617</v>
+        <v>951</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>893</v>
+        <v>50</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="I98" t="s">
         <v>135</v>
@@ -8759,23 +8826,23 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>162</v>
+        <v>678</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>996</v>
+        <v>842</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>530</v>
+        <v>694</v>
       </c>
       <c r="I99" t="s">
         <v>137</v>
@@ -8793,23 +8860,23 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>384</v>
+        <v>805</v>
       </c>
       <c r="I100" t="s">
         <v>136</v>
@@ -8827,23 +8894,23 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>641</v>
+        <v>929</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>604</v>
+        <v>900</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>426</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>409</v>
+        <v>945</v>
       </c>
       <c r="I101" t="s">
         <v>137</v>
@@ -8861,23 +8928,23 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="5"/>
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
-        <v>412</v>
+        <v>840</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="I102" t="s">
         <v>137</v>
@@ -8895,23 +8962,23 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="5"/>
-        <v>431</v>
+        <v>851</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="5"/>
-        <v>849</v>
+        <v>682</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>791</v>
+        <v>489</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>371</v>
+        <v>820</v>
       </c>
       <c r="I103" t="s">
         <v>135</v>
@@ -8929,23 +8996,23 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="5"/>
-        <v>851</v>
+        <v>603</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
-        <v>867</v>
+        <v>706</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>969</v>
+        <v>642</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="I104" t="s">
         <v>136</v>
@@ -8967,19 +9034,19 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="5"/>
-        <v>958</v>
+        <v>744</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
-        <v>598</v>
+        <v>793</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>901</v>
+        <v>381</v>
       </c>
       <c r="I105" t="s">
         <v>136</v>
@@ -8997,23 +9064,23 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="5"/>
-        <v>898</v>
+        <v>420</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
-        <v>161</v>
+        <v>970</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>768</v>
+        <v>657</v>
       </c>
       <c r="I106" t="s">
         <v>135</v>
@@ -9031,23 +9098,23 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="5"/>
-        <v>920</v>
+        <v>967</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
-        <v>335</v>
+        <v>759</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>185</v>
+        <v>569</v>
       </c>
       <c r="I107" t="s">
         <v>137</v>
@@ -9065,23 +9132,23 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>614</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="5"/>
-        <v>386</v>
+        <v>488</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="5"/>
-        <v>360</v>
+        <v>948</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="I108" t="s">
         <v>136</v>
@@ -9099,23 +9166,23 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>476</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="5"/>
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="I109" t="s">
         <v>136</v>
@@ -9133,23 +9200,23 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="5"/>
-        <v>794</v>
+        <v>426</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="5"/>
-        <v>196</v>
+        <v>607</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="5"/>
-        <v>572</v>
+        <v>977</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>832</v>
       </c>
       <c r="I110" t="s">
         <v>135</v>
@@ -9167,23 +9234,23 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>781</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="5"/>
-        <v>145</v>
+        <v>841</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>711</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>974</v>
+        <v>604</v>
       </c>
       <c r="I111" t="s">
         <v>136</v>
@@ -9201,23 +9268,23 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="5"/>
-        <v>749</v>
+        <v>344</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="5"/>
-        <v>829</v>
+        <v>531</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="5"/>
-        <v>286</v>
+        <v>635</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>988</v>
+        <v>407</v>
       </c>
       <c r="I112" t="s">
         <v>136</v>
@@ -9235,23 +9302,23 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
-        <v>918</v>
+        <v>964</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="5"/>
-        <v>943</v>
+        <v>314</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>733</v>
+        <v>498</v>
       </c>
       <c r="I113" t="s">
         <v>137</v>
@@ -9269,23 +9336,23 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="5"/>
-        <v>571</v>
+        <v>665</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="5"/>
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="5"/>
-        <v>769</v>
+        <v>488</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>971</v>
+        <v>160</v>
       </c>
       <c r="I114" t="s">
         <v>137</v>
@@ -9297,6 +9364,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9364,11 +9432,11 @@
       </c>
       <c r="I4" t="str">
         <f ca="1">IF(J4&gt;0.8,"A",IF(J4&gt;0.3,"B","C"))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J4">
         <f ca="1">RAND()</f>
-        <v>0.89941519590046159</v>
+        <v>4.0948606093345385E-2</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -9399,7 +9467,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J68" ca="1" si="1">RAND()</f>
-        <v>0.44523960229211756</v>
+        <v>0.44325431638361112</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -9430,7 +9498,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80856847336213589</v>
+        <v>0.86627386330357492</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -9457,11 +9525,11 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40823561008284326</v>
+        <v>0.18301144339586284</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -9488,11 +9556,11 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8371937617780959</v>
+        <v>0.40431847888405703</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -9523,7 +9591,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58376430632279463</v>
+        <v>0.6767605980445176</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -9554,7 +9622,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47172649706485514</v>
+        <v>0.50372807834064748</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -9581,11 +9649,11 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5696950624151587E-2</v>
+        <v>0.696251089622135</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -9616,7 +9684,7 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94390364218648393</v>
+        <v>0.85270160181380428</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -9643,11 +9711,11 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47314582859163767</v>
+        <v>0.82768089736063966</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -9678,7 +9746,7 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.147291743346044</v>
+        <v>0.28766880705916886</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -9705,11 +9773,11 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85868092210774249</v>
+        <v>0.50731016595897427</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -9733,11 +9801,11 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93482787095047704</v>
+        <v>0.54486294629316012</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -9768,7 +9836,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40021071737438496</v>
+        <v>0.32720963146335291</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -9795,11 +9863,11 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48692691128800047</v>
+        <v>0.12784832114314804</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -9830,7 +9898,7 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95810354119350161</v>
+        <v>0.99476650445051484</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -9857,11 +9925,11 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22384605448732875</v>
+        <v>0.9445694326339823</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -9888,11 +9956,11 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29801612304078962</v>
+        <v>0.63792177698700225</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -9923,7 +9991,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33354290156638289</v>
+        <v>0.59296957150887275</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -9950,11 +10018,11 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73417558220612922</v>
+        <v>4.1747193577062469E-2</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -9981,11 +10049,11 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52012171901903992</v>
+        <v>0.24321302676033063</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -10016,7 +10084,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4440507618509391E-2</v>
+        <v>0.14933541815614615</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -10047,7 +10115,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33629277410470304</v>
+        <v>0.40845466387508078</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -10078,7 +10146,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46914480577457351</v>
+        <v>0.71980930360152939</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -10109,7 +10177,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6529580515052793</v>
+        <v>0.49559199792693676</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -10133,11 +10201,11 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19980301166308756</v>
+        <v>0.6617324827828911</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -10164,11 +10232,11 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76971638456924552</v>
+        <v>0.85942221880533831</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -10195,11 +10263,11 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13746810407890975</v>
+        <v>0.69480657688775482</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -10230,7 +10298,7 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72777146527244918</v>
+        <v>0.75945967354965127</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -10261,7 +10329,7 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65595423667113362</v>
+        <v>0.70583808198726694</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -10288,11 +10356,11 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15329763891676373</v>
+        <v>0.98970761022255671</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -10323,7 +10391,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66786726278248854</v>
+        <v>0.58169776278238428</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -10354,7 +10422,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15227983274409684</v>
+        <v>0.17421820456139769</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -10381,11 +10449,11 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.159914265734031</v>
+        <v>0.38269359035668604</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -10416,7 +10484,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52340810975511598</v>
+        <v>0.44683964106761254</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -10441,7 +10509,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31183749310623265</v>
+        <v>0.31235346488017879</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -10468,11 +10536,11 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28386408802604035</v>
+        <v>0.63104654914173131</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -10499,11 +10567,11 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82426600301923114</v>
+        <v>0.51082739048136649</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -10530,11 +10598,11 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1035573399893841E-2</v>
+        <v>0.44122145867239704</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -10565,7 +10633,7 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68623695609590596</v>
+        <v>0.38658112512436182</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -10589,11 +10657,11 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6226496120850149</v>
+        <v>0.86712565520582607</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -10624,7 +10692,7 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60572907105362206</v>
+        <v>0.69810796686050447</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -10651,11 +10719,11 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.314341975670968</v>
+        <v>0.94448750103798329</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -10686,7 +10754,7 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42608640348056426</v>
+        <v>0.58845994690947545</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -10713,11 +10781,11 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55398979513153535</v>
+        <v>0.12670323158208974</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -10744,11 +10812,11 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80050497437424206</v>
+        <v>0.59998038786675401</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -10772,11 +10840,11 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18423886055984096</v>
+        <v>0.94181823989538827</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -10807,7 +10875,7 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51885317411357235</v>
+        <v>0.69006316398677958</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -10838,7 +10906,7 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75520138184872432</v>
+        <v>0.42956478156783318</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -10865,11 +10933,11 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57295165283432847</v>
+        <v>0.93416494956621465</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -10900,7 +10968,7 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89020880924462065</v>
+        <v>0.80900168658641214</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -10924,11 +10992,11 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74173650772510813</v>
+        <v>0.81148454716396967</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -10959,7 +11027,7 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44028206423787519</v>
+        <v>0.69048621936059995</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -10986,11 +11054,11 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40098242186085375</v>
+        <v>0.2719332323593302</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -11017,11 +11085,11 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34774928680256878</v>
+        <v>2.5737416271610747E-2</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -11048,11 +11116,11 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.200133254072692</v>
+        <v>0.6240641533770549</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -11080,7 +11148,7 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53756641472629874</v>
+        <v>0.41371911984597465</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -11107,11 +11175,11 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16664085831589326</v>
+        <v>0.50994626283346489</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -11138,11 +11206,11 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30476566770310209</v>
+        <v>0.8155137962990634</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -11169,11 +11237,11 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19955502746979337</v>
+        <v>0.47859138125464129</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -11204,7 +11272,7 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86936104804508929</v>
+        <v>0.83196779827747036</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -11231,11 +11299,11 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78928540737064223</v>
+        <v>0.16441904761439385</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -11266,7 +11334,7 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40866262322394442</v>
+        <v>0.73325191938468115</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -11293,11 +11361,11 @@
       </c>
       <c r="I67" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44158195574142356</v>
+        <v>1.0904140769744108E-2</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -11324,11 +11392,11 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52857587399108474</v>
+        <v>0.80174742636311547</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -11355,11 +11423,11 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" ref="I69:I114" ca="1" si="2">IF(J69&gt;0.8,"A",IF(J69&gt;0.3,"B","C"))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J69">
         <f t="shared" ref="J69:J114" ca="1" si="3">RAND()</f>
-        <v>0.26829985974481319</v>
+        <v>0.94766497547780315</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -11386,11 +11454,11 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84269718369842872</v>
+        <v>9.0474040384445731E-2</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -11417,11 +11485,11 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91650354922477151</v>
+        <v>0.38514818291006359</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -11448,11 +11516,11 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93391743779348813</v>
+        <v>6.0286148312952204E-2</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -11479,11 +11547,11 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56157963950953071</v>
+        <v>0.171910794598225</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -11514,7 +11582,7 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98117859120370499</v>
+        <v>0.86453763197127287</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -11541,11 +11609,11 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12792264093790928</v>
+        <v>0.81054782936817749</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -11572,11 +11640,11 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26351780745296882</v>
+        <v>0.44570032892288636</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -11607,7 +11675,7 @@
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87835231703286809</v>
+        <v>0.90522052485856297</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -11634,11 +11702,11 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32275910794910845</v>
+        <v>0.81628089533382475</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -11665,11 +11733,11 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7002237788974703E-2</v>
+        <v>0.97483761373824063</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -11696,11 +11764,11 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8591759632722904E-2</v>
+        <v>0.48085328194107613</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -11727,11 +11795,11 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85184408357771657</v>
+        <v>0.61370348869637115</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -11762,7 +11830,7 @@
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="3"/>
-        <v>2.902211628632001E-2</v>
+        <v>8.3805081427147377E-2</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -11789,11 +11857,11 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="3"/>
-        <v>8.835448275760216E-2</v>
+        <v>0.73799625760133003</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -11820,11 +11888,11 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3187019732021694E-2</v>
+        <v>0.82634642474253905</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -11851,11 +11919,11 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7405474940568588E-2</v>
+        <v>0.51458343472882828</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -11882,11 +11950,11 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48336115538440683</v>
+        <v>0.84034958474727217</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -11913,11 +11981,11 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1551242061998477E-2</v>
+        <v>0.42313511001987392</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -11948,7 +12016,7 @@
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98623051720258625</v>
+        <v>0.88263462504660162</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -11975,11 +12043,11 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13984453952479625</v>
+        <v>0.46884297802222608</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -12006,11 +12074,11 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61848967992557624</v>
+        <v>0.81393933591477474</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -12041,7 +12109,7 @@
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2776323528553317E-2</v>
+        <v>2.755237761292384E-3</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -12068,11 +12136,11 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2625646946411343</v>
+        <v>0.90153531094858919</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -12099,11 +12167,11 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56638689863186698</v>
+        <v>0.96372685782028278</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -12130,11 +12198,11 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35268631711775278</v>
+        <v>0.20073703967203249</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -12161,11 +12229,11 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="3"/>
-        <v>4.788372479684444E-2</v>
+        <v>0.74447089376953135</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -12192,11 +12260,11 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61707867533520955</v>
+        <v>2.4107066960986079E-2</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -12208,31 +12276,31 @@
       </c>
       <c r="D97">
         <f t="shared" ref="D97:D114" ca="1" si="4">FLOOR(RAND()*10,1)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E97">
         <f t="shared" ref="E97:H114" ca="1" si="5">FLOOR(RAND()*1000,1)</f>
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>755</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="5"/>
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="5"/>
-        <v>545</v>
+        <v>917</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43408766434052681</v>
+        <v>9.9269844311258404E-2</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -12244,23 +12312,23 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>643</v>
+        <v>429</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>517</v>
+        <v>783</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12268,7 +12336,7 @@
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56770975076529029</v>
+        <v>0.34026332270162196</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -12284,27 +12352,27 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>584</v>
+        <v>685</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>928</v>
+        <v>107</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>381</v>
+        <v>957</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>162</v>
+        <v>696</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82849411221547797</v>
+        <v>0.62644659019783977</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -12316,31 +12384,31 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>479</v>
+        <v>886</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>671</v>
+        <v>550</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>858</v>
+        <v>644</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28659352358331558</v>
+        <v>0.38609637639131267</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -12352,31 +12420,31 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>167</v>
+        <v>596</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>723</v>
+        <v>595</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>579</v>
+        <v>248</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>953</v>
+        <v>691</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29665560545530323</v>
+        <v>0.90574888206234783</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -12388,23 +12456,23 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="5"/>
-        <v>576</v>
+        <v>394</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
-        <v>626</v>
+        <v>816</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>355</v>
+        <v>731</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
+        <v>773</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12412,7 +12480,7 @@
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66904634400572038</v>
+        <v>0.54470279306833902</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -12424,23 +12492,23 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="5"/>
-        <v>547</v>
+        <v>664</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="5"/>
-        <v>635</v>
+        <v>277</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12448,7 +12516,7 @@
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76895306683821085</v>
+        <v>0.588534387309817</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -12460,31 +12528,31 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="5"/>
-        <v>665</v>
+        <v>952</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>864</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59200398575204083</v>
+        <v>2.0530216986629601E-2</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -12496,23 +12564,23 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="5"/>
-        <v>291</v>
+        <v>775</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
-        <v>763</v>
+        <v>125</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <v>991</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>347</v>
+        <v>927</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12520,7 +12588,7 @@
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14587643312297449</v>
+        <v>8.8698725563708281E-2</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -12532,31 +12600,31 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="5"/>
-        <v>143</v>
+        <v>916</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
-        <v>529</v>
+        <v>854</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
-        <v>124</v>
+        <v>774</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61479156906667587</v>
+        <v>0.270094370047543</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -12568,23 +12636,23 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="5"/>
-        <v>370</v>
+        <v>641</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
-        <v>549</v>
+        <v>992</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
-        <v>510</v>
+        <v>891</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12592,7 +12660,7 @@
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29738913302802017</v>
+        <v>6.7999574090159554E-2</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -12604,31 +12672,31 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>686</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="5"/>
-        <v>856</v>
+        <v>430</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="5"/>
-        <v>782</v>
+        <v>855</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>797</v>
+        <v>621</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25877495085650304</v>
+        <v>0.70366889487775819</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -12640,23 +12708,23 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="5"/>
-        <v>727</v>
+        <v>12</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="5"/>
-        <v>507</v>
+        <v>959</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="5"/>
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>944</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12664,7 +12732,7 @@
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22556813902531325</v>
+        <v>0.23251888812761701</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -12676,23 +12744,23 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="5"/>
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>854</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="5"/>
-        <v>565</v>
+        <v>304</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>963</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12700,7 +12768,7 @@
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78997052174509297</v>
+        <v>0.57082058662913027</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -12712,23 +12780,23 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="5"/>
-        <v>943</v>
+        <v>474</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="5"/>
-        <v>279</v>
+        <v>52</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="5"/>
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12736,7 +12804,7 @@
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4813894827503855E-2</v>
+        <v>2.4054225306547661E-2</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -12748,31 +12816,31 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="5"/>
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="5"/>
-        <v>482</v>
+        <v>111</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="5"/>
-        <v>316</v>
+        <v>507</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11945827780810725</v>
+        <v>0.33100755553866856</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -12784,31 +12852,31 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
-        <v>129</v>
+        <v>863</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>710</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="5"/>
-        <v>279</v>
+        <v>889</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>826</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61334646860824715</v>
+        <v>0.93378333867111052</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -12820,23 +12888,23 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="5"/>
-        <v>950</v>
+        <v>589</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
+        <v>479</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="5"/>
-        <v>879</v>
+        <v>418</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12844,7 +12912,7 @@
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34028223044777162</v>
+        <v>0.77956279630326453</v>
       </c>
     </row>
   </sheetData>

--- a/doc/特征工程流程图v1.8.xlsx
+++ b/doc/特征工程流程图v1.8.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6C46718-7251-4FEB-96C9-2BEED7E1CBE6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59A6BD67-9966-4A84-9B97-310F8C336C1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="824" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="824" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.功能" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="267">
   <si>
     <t>过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3699,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42112F6E-780D-4F54-AA89-CB41E0B2B8FB}">
   <dimension ref="B4:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="C72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4698,7 +4698,7 @@
         <v>245</v>
       </c>
       <c r="I76" s="20">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -4721,7 +4721,7 @@
         <v>245</v>
       </c>
       <c r="I77" s="20">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -4744,7 +4744,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="20">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
         <v>245</v>
       </c>
       <c r="I79" s="20">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -4790,10 +4790,10 @@
         <v>245</v>
       </c>
       <c r="I80" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
         <v>95</v>
       </c>
@@ -4813,10 +4813,10 @@
         <v>246</v>
       </c>
       <c r="I81" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="35" t="s">
         <v>190</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="H83" s="34"/>
       <c r="I83" s="33"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
         <v>195</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
         <v>191</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
         <v>191</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
         <v>191</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
         <v>191</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="33" t="s">
         <v>34</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="H89" s="34"/>
       <c r="I89" s="33"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="33" t="s">
         <v>155</v>
       </c>
@@ -4948,170 +4948,224 @@
       <c r="H90" s="34"/>
       <c r="I90" s="33"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C92" s="34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G93" s="42" t="s">
+      <c r="I93" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="H93" s="42" t="s">
+      <c r="J93" s="42" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D94" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E94" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="21">
+      <c r="E94" s="43">
+        <v>7</v>
+      </c>
+      <c r="F94" s="43">
+        <v>12</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H94" s="21">
         <v>5</v>
       </c>
-      <c r="G94" s="20">
+      <c r="I94" s="20">
         <v>3</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D95" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="21">
+      <c r="E95" s="43">
+        <v>7</v>
+      </c>
+      <c r="F95" s="43">
+        <v>12</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H95" s="21">
         <v>5</v>
       </c>
-      <c r="G95" s="20">
+      <c r="I95" s="20">
         <v>2</v>
       </c>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D96" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E96" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="21">
+      <c r="E96" s="43">
+        <v>7</v>
+      </c>
+      <c r="F96" s="43">
+        <v>12</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H96" s="21">
         <v>6</v>
       </c>
-      <c r="G96" s="20"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="20"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D97" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="21"/>
-      <c r="G97" s="20">
+      <c r="E97" s="43">
+        <v>7</v>
+      </c>
+      <c r="F97" s="43">
+        <v>12</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H97" s="21"/>
+      <c r="I97" s="20">
         <v>4</v>
       </c>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="E98" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="21">
+      <c r="E98" s="43">
         <v>3</v>
       </c>
-      <c r="G98" s="20">
+      <c r="F98" s="43">
+        <v>12</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H98" s="21">
+        <v>3</v>
+      </c>
+      <c r="I98" s="20">
         <v>4</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D99" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="E99" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="21">
+      <c r="E99" s="43">
+        <v>3</v>
+      </c>
+      <c r="F99" s="43">
+        <v>12</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H99" s="21">
         <v>8</v>
       </c>
-      <c r="G99" s="20"/>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="20"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D100" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E100" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="21"/>
-      <c r="G100" s="20">
+      <c r="E100" s="43">
+        <v>3</v>
+      </c>
+      <c r="F100" s="43">
+        <v>12</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H100" s="21"/>
+      <c r="I100" s="20">
         <v>6</v>
       </c>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D101" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="E101" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="21"/>
-      <c r="G101" s="20">
+      <c r="E101" s="43">
+        <v>3</v>
+      </c>
+      <c r="F101" s="43">
+        <v>12</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H101" s="21"/>
+      <c r="I101" s="20">
         <v>7</v>
       </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="35" t="s">
         <v>153</v>
       </c>
@@ -5121,7 +5175,7 @@
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
         <v>195</v>
       </c>
@@ -5141,7 +5195,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
         <v>36</v>
       </c>
@@ -5155,7 +5209,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
         <v>36</v>
       </c>
@@ -5171,7 +5225,7 @@
       </c>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
         <v>36</v>
       </c>
@@ -5185,7 +5239,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
         <v>36</v>
       </c>
@@ -5199,7 +5253,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
         <v>36</v>
       </c>
@@ -5213,7 +5267,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="33" t="s">
         <v>43</v>
       </c>
@@ -5223,7 +5277,7 @@
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="33" t="s">
         <v>33</v>
       </c>
@@ -5628,23 +5682,23 @@
       </c>
       <c r="D4">
         <f ca="1">FLOOR(RAND()*10,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f ca="1">FLOOR(RAND()*1000,1)</f>
-        <v>559</v>
+        <v>482</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:H19" ca="1" si="0">FLOOR(RAND()*1000,1)</f>
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
         <v>135</v>
@@ -5662,23 +5716,23 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D68" ca="1" si="1">FLOOR(RAND()*10,1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:H68" ca="1" si="2">FLOOR(RAND()*1000,1)</f>
-        <v>731</v>
+        <v>281</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>598</v>
+        <v>996</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>936</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>690</v>
+        <v>224</v>
       </c>
       <c r="I5" t="s">
         <v>136</v>
@@ -5696,23 +5750,23 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>895</v>
+        <v>134</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
         <v>136</v>
@@ -5730,23 +5784,23 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>805</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>550</v>
+        <v>721</v>
       </c>
       <c r="I7" t="s">
         <v>137</v>
@@ -5764,23 +5818,23 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>752</v>
+        <v>511</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>811</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>968</v>
+        <v>686</v>
       </c>
       <c r="I8" t="s">
         <v>136</v>
@@ -5798,23 +5852,23 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>520</v>
+        <v>426</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>911</v>
+        <v>250</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
         <v>136</v>
@@ -5832,23 +5886,23 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>595</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>988</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>444</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>576</v>
       </c>
       <c r="I10" t="s">
         <v>136</v>
@@ -5866,23 +5920,23 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>356</v>
+        <v>214</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>675</v>
+        <v>376</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="I11" t="s">
         <v>137</v>
@@ -5900,23 +5954,23 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>336</v>
+        <v>503</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>714</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>714</v>
+        <v>675</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>692</v>
       </c>
       <c r="I12" t="s">
         <v>136</v>
@@ -5934,23 +5988,23 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <v>677</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>779</v>
+        <v>703</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>857</v>
+        <v>958</v>
       </c>
       <c r="I13" t="s">
         <v>136</v>
@@ -5972,19 +6026,19 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>399</v>
+        <v>810</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>440</v>
+        <v>730</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
+        <v>611</v>
       </c>
       <c r="I14" t="s">
         <v>136</v>
@@ -6002,23 +6056,23 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>390</v>
+        <v>626</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>943</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>915</v>
       </c>
       <c r="I15" t="s">
         <v>136</v>
@@ -6036,19 +6090,19 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>616</v>
+        <v>972</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>841</v>
       </c>
       <c r="I16" t="s">
         <v>136</v>
@@ -6066,23 +6120,23 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>924</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>745</v>
+        <v>908</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>419</v>
+        <v>970</v>
       </c>
       <c r="I17" t="s">
         <v>135</v>
@@ -6100,23 +6154,23 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>676</v>
+        <v>265</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>944</v>
+        <v>711</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>435</v>
+        <v>818</v>
       </c>
       <c r="I18" t="s">
         <v>136</v>
@@ -6134,23 +6188,23 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>962</v>
+        <v>374</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>234</v>
+        <v>692</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>520</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="I19" t="s">
         <v>136</v>
@@ -6168,23 +6222,23 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>288</v>
+        <v>866</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>989</v>
+        <v>604</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>930</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>978</v>
+        <v>742</v>
       </c>
       <c r="I20" t="s">
         <v>136</v>
@@ -6202,23 +6256,23 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>425</v>
+        <v>900</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>387</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
         <v>136</v>
@@ -6236,23 +6290,23 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>312</v>
+        <v>472</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>502</v>
+        <v>789</v>
       </c>
       <c r="I22" t="s">
         <v>135</v>
@@ -6270,23 +6324,23 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>344</v>
+        <v>668</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>925</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>987</v>
+        <v>237</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>989</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
         <v>137</v>
@@ -6304,23 +6358,23 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>799</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>264</v>
+        <v>922</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>935</v>
       </c>
       <c r="I24" t="s">
         <v>136</v>
@@ -6338,23 +6392,23 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>950</v>
+        <v>714</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>459</v>
+        <v>95</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>762</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>558</v>
+        <v>936</v>
       </c>
       <c r="I25" t="s">
         <v>135</v>
@@ -6372,23 +6426,23 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>592</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>792</v>
+        <v>424</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>546</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>992</v>
+        <v>771</v>
       </c>
       <c r="I26" t="s">
         <v>136</v>
@@ -6406,23 +6460,23 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>876</v>
+        <v>372</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>312</v>
+        <v>571</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>297</v>
+        <v>794</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="I27" t="s">
         <v>135</v>
@@ -6440,23 +6494,23 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>891</v>
+        <v>495</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>459</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s">
         <v>135</v>
@@ -6474,19 +6528,19 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>550</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>705</v>
+        <v>511</v>
       </c>
       <c r="I29" t="s">
         <v>137</v>
@@ -6504,23 +6558,23 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>463</v>
+        <v>88</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>894</v>
+        <v>574</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="I30" t="s">
         <v>135</v>
@@ -6538,23 +6592,23 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>780</v>
+        <v>394</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>507</v>
+        <v>207</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <v>511</v>
       </c>
       <c r="I31" t="s">
         <v>135</v>
@@ -6572,23 +6626,23 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>692</v>
+        <v>830</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>479</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>435</v>
+        <v>167</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="I32" t="s">
         <v>137</v>
@@ -6606,23 +6660,23 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>162</v>
+        <v>651</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>945</v>
+        <v>978</v>
       </c>
       <c r="I33" t="s">
         <v>136</v>
@@ -6640,23 +6694,23 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>619</v>
+        <v>411</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>895</v>
+        <v>568</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
         <v>136</v>
@@ -6678,19 +6732,19 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>647</v>
+        <v>162</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>783</v>
       </c>
       <c r="I35" t="s">
         <v>136</v>
@@ -6708,23 +6762,23 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>517</v>
+        <v>20</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>647</v>
+        <v>843</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>656</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s">
         <v>136</v>
@@ -6742,23 +6796,23 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>475</v>
+        <v>765</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>815</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="I37" t="s">
         <v>136</v>
@@ -6776,23 +6830,23 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>432</v>
+        <v>946</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>890</v>
+        <v>566</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>859</v>
+        <v>204</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>315</v>
+        <v>419</v>
       </c>
       <c r="I38" t="s">
         <v>136</v>
@@ -6810,15 +6864,15 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>860</v>
+        <v>400</v>
       </c>
       <c r="I39" t="s">
         <v>136</v>
@@ -6836,23 +6890,23 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>700</v>
+        <v>523</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>968</v>
+        <v>681</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>695</v>
       </c>
       <c r="I40" t="s">
         <v>135</v>
@@ -6870,23 +6924,23 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>987</v>
+        <v>563</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>368</v>
+        <v>575</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="I41" t="s">
         <v>137</v>
@@ -6904,23 +6958,23 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>506</v>
+        <v>969</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>408</v>
+        <v>900</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="I42" t="s">
         <v>136</v>
@@ -6938,23 +6992,23 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>804</v>
+        <v>886</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>730</v>
       </c>
       <c r="I43" t="s">
         <v>136</v>
@@ -6972,19 +7026,19 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>804</v>
+        <v>584</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>669</v>
+        <v>78</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="I44" t="s">
         <v>136</v>
@@ -7002,23 +7056,23 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>630</v>
+        <v>335</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>657</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>662</v>
+        <v>456</v>
       </c>
       <c r="I45" t="s">
         <v>136</v>
@@ -7036,23 +7090,23 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>816</v>
+        <v>301</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>944</v>
+        <v>808</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>397</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
         <v>136</v>
@@ -7074,19 +7128,19 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <v>514</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>804</v>
+        <v>635</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="I47" t="s">
         <v>136</v>
@@ -7104,23 +7158,23 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>903</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="I48" t="s">
         <v>135</v>
@@ -7138,23 +7192,23 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>697</v>
+        <v>185</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>699</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>637</v>
+        <v>791</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>677</v>
+        <v>533</v>
       </c>
       <c r="I49" t="s">
         <v>135</v>
@@ -7172,19 +7226,19 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>779</v>
+        <v>228</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>343</v>
+        <v>452</v>
       </c>
       <c r="I50" t="s">
         <v>135</v>
@@ -7202,23 +7256,23 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>548</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
         <v>137</v>
@@ -7236,23 +7290,23 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>415</v>
+        <v>848</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>691</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>871</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>513</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
         <v>136</v>
@@ -7270,23 +7324,23 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>826</v>
+        <v>444</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>727</v>
+        <v>522</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="I53" t="s">
         <v>135</v>
@@ -7304,23 +7358,23 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>589</v>
+        <v>46</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>312</v>
+        <v>594</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>348</v>
+        <v>769</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I54" t="s">
         <v>135</v>
@@ -7338,19 +7392,19 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>442</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>528</v>
+        <v>917</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>416</v>
+        <v>834</v>
       </c>
       <c r="I55" t="s">
         <v>135</v>
@@ -7368,23 +7422,23 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>700</v>
+        <v>915</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>393</v>
+        <v>569</v>
       </c>
       <c r="I56" t="s">
         <v>136</v>
@@ -7402,23 +7456,23 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>490</v>
+        <v>221</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>543</v>
+        <v>243</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>918</v>
+        <v>321</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>385</v>
       </c>
       <c r="I57" t="s">
         <v>136</v>
@@ -7440,19 +7494,19 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>862</v>
+        <v>930</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>625</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>710</v>
+        <v>217</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>434</v>
+        <v>155</v>
       </c>
       <c r="I58" t="s">
         <v>135</v>
@@ -7470,23 +7524,23 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>925</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>791</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>270</v>
+        <v>809</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>712</v>
+        <v>976</v>
       </c>
       <c r="I59" t="s">
         <v>136</v>
@@ -7508,15 +7562,15 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>995</v>
+        <v>636</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>861</v>
+        <v>106</v>
       </c>
       <c r="I60" t="s">
         <v>137</v>
@@ -7534,23 +7588,23 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>491</v>
+        <v>979</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>23</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>870</v>
+        <v>351</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>473</v>
       </c>
       <c r="I61" t="s">
         <v>136</v>
@@ -7568,23 +7622,23 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>410</v>
+        <v>722</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>524</v>
+        <v>74</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>640</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>636</v>
+        <v>906</v>
       </c>
       <c r="I62" t="s">
         <v>136</v>
@@ -7602,23 +7656,23 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>850</v>
+        <v>210</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>542</v>
+        <v>457</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>977</v>
+        <v>687</v>
       </c>
       <c r="I63" t="s">
         <v>135</v>
@@ -7636,23 +7690,23 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>585</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>704</v>
+        <v>82</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s">
         <v>136</v>
@@ -7670,23 +7724,23 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>898</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>755</v>
+        <v>580</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>885</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>799</v>
+        <v>511</v>
       </c>
       <c r="I65" t="s">
         <v>135</v>
@@ -7704,23 +7758,23 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>896</v>
+        <v>371</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>674</v>
+        <v>906</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>684</v>
+        <v>428</v>
       </c>
       <c r="I66" t="s">
         <v>136</v>
@@ -7738,23 +7792,23 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>874</v>
+        <v>331</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="2"/>
-        <v>792</v>
+        <v>638</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
-        <v>480</v>
+        <v>170</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="2"/>
-        <v>950</v>
+        <v>241</v>
       </c>
       <c r="I67" t="s">
         <v>136</v>
@@ -7772,23 +7826,23 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>653</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="2"/>
-        <v>169</v>
+        <v>875</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>539</v>
+        <v>868</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>515</v>
+        <v>200</v>
       </c>
       <c r="I68" t="s">
         <v>136</v>
@@ -7806,23 +7860,23 @@
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D114" ca="1" si="3">FLOOR(RAND()*10,1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:H97" ca="1" si="4">FLOOR(RAND()*1000,1)</f>
-        <v>747</v>
+        <v>577</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>458</v>
+        <v>57</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="4"/>
-        <v>588</v>
+        <v>106</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="4"/>
-        <v>691</v>
+        <v>951</v>
       </c>
       <c r="I69" t="s">
         <v>137</v>
@@ -7844,19 +7898,19 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>118</v>
+        <v>475</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="4"/>
-        <v>323</v>
+        <v>404</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="4"/>
-        <v>306</v>
+        <v>617</v>
       </c>
       <c r="I70" t="s">
         <v>136</v>
@@ -7874,23 +7928,23 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>890</v>
+        <v>583</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>513</v>
+        <v>421</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>691</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="4"/>
-        <v>948</v>
+        <v>463</v>
       </c>
       <c r="I71" t="s">
         <v>136</v>
@@ -7908,23 +7962,23 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>597</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>936</v>
+        <v>375</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="4"/>
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="4"/>
-        <v>378</v>
+        <v>890</v>
       </c>
       <c r="I72" t="s">
         <v>135</v>
@@ -7942,23 +7996,23 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="4"/>
-        <v>799</v>
+        <v>866</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>342</v>
       </c>
       <c r="I73" t="s">
         <v>135</v>
@@ -7976,23 +8030,23 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>971</v>
+        <v>622</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>801</v>
+        <v>595</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="4"/>
-        <v>697</v>
+        <v>774</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>681</v>
       </c>
       <c r="I74" t="s">
         <v>136</v>
@@ -8014,19 +8068,19 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>366</v>
+        <v>175</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>112</v>
+        <v>878</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="4"/>
-        <v>520</v>
+        <v>64</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="4"/>
-        <v>113</v>
+        <v>772</v>
       </c>
       <c r="I75" t="s">
         <v>136</v>
@@ -8044,23 +8098,23 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>140</v>
+        <v>429</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="4"/>
-        <v>843</v>
+        <v>738</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="I76" t="s">
         <v>136</v>
@@ -8078,23 +8132,23 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>846</v>
+        <v>372</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>814</v>
+        <v>135</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="4"/>
-        <v>574</v>
+        <v>911</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="4"/>
-        <v>489</v>
+        <v>19</v>
       </c>
       <c r="I77" t="s">
         <v>137</v>
@@ -8112,23 +8166,23 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>263</v>
+        <v>604</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>305</v>
+        <v>945</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="4"/>
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="4"/>
-        <v>619</v>
+        <v>990</v>
       </c>
       <c r="I78" t="s">
         <v>135</v>
@@ -8146,23 +8200,23 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>611</v>
+        <v>33</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>459</v>
+        <v>964</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="4"/>
-        <v>126</v>
+        <v>959</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="4"/>
-        <v>445</v>
+        <v>972</v>
       </c>
       <c r="I79" t="s">
         <v>136</v>
@@ -8180,23 +8234,23 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>828</v>
+        <v>331</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>190</v>
+        <v>887</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="4"/>
-        <v>315</v>
+        <v>562</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="4"/>
-        <v>844</v>
+        <v>809</v>
       </c>
       <c r="I80" t="s">
         <v>135</v>
@@ -8214,23 +8268,23 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="4"/>
-        <v>976</v>
+        <v>790</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="4"/>
-        <v>975</v>
+        <v>642</v>
       </c>
       <c r="I81" t="s">
         <v>137</v>
@@ -8248,23 +8302,23 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>998</v>
+        <v>888</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>683</v>
+        <v>593</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="4"/>
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="4"/>
-        <v>165</v>
+        <v>428</v>
       </c>
       <c r="I82" t="s">
         <v>136</v>
@@ -8282,23 +8336,23 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>822</v>
+        <v>119</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>804</v>
+        <v>665</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="4"/>
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="4"/>
-        <v>636</v>
+        <v>174</v>
       </c>
       <c r="I83" t="s">
         <v>137</v>
@@ -8316,23 +8370,23 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>587</v>
+        <v>490</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>737</v>
+        <v>58</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="4"/>
-        <v>901</v>
+        <v>807</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="4"/>
-        <v>490</v>
+        <v>990</v>
       </c>
       <c r="I84" t="s">
         <v>137</v>
@@ -8350,23 +8404,23 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>788</v>
+        <v>338</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>714</v>
+        <v>454</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="4"/>
-        <v>816</v>
+        <v>768</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="4"/>
-        <v>930</v>
+        <v>639</v>
       </c>
       <c r="I85" t="s">
         <v>135</v>
@@ -8384,23 +8438,23 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>852</v>
+        <v>702</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>987</v>
+        <v>617</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="4"/>
-        <v>751</v>
+        <v>791</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="4"/>
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="I86" t="s">
         <v>136</v>
@@ -8418,23 +8472,23 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>591</v>
+        <v>683</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="4"/>
-        <v>925</v>
+        <v>249</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="4"/>
-        <v>183</v>
+        <v>346</v>
       </c>
       <c r="I87" t="s">
         <v>136</v>
@@ -8452,23 +8506,23 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>265</v>
+        <v>455</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="4"/>
-        <v>555</v>
+        <v>88</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="4"/>
-        <v>801</v>
+        <v>288</v>
       </c>
       <c r="I88" t="s">
         <v>135</v>
@@ -8486,23 +8540,23 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>880</v>
+        <v>987</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="4"/>
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="4"/>
-        <v>437</v>
+        <v>716</v>
       </c>
       <c r="I89" t="s">
         <v>137</v>
@@ -8524,19 +8578,19 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>446</v>
+        <v>560</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>984</v>
+        <v>187</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="4"/>
-        <v>649</v>
+        <v>992</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="4"/>
-        <v>694</v>
+        <v>304</v>
       </c>
       <c r="I90" t="s">
         <v>136</v>
@@ -8554,23 +8608,23 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>403</v>
+        <v>116</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>571</v>
+        <v>298</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="4"/>
-        <v>586</v>
+        <v>333</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="4"/>
-        <v>790</v>
+        <v>136</v>
       </c>
       <c r="I91" t="s">
         <v>136</v>
@@ -8588,23 +8642,23 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>487</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>626</v>
+        <v>276</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="4"/>
-        <v>987</v>
+        <v>187</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="4"/>
-        <v>962</v>
+        <v>228</v>
       </c>
       <c r="I92" t="s">
         <v>135</v>
@@ -8622,23 +8676,23 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>548</v>
+        <v>682</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>164</v>
+        <v>450</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="4"/>
-        <v>451</v>
+        <v>773</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="4"/>
-        <v>950</v>
+        <v>483</v>
       </c>
       <c r="I93" t="s">
         <v>136</v>
@@ -8656,23 +8710,23 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>955</v>
+        <v>124</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>635</v>
+        <v>826</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="4"/>
-        <v>783</v>
+        <v>356</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="4"/>
-        <v>983</v>
+        <v>332</v>
       </c>
       <c r="I94" t="s">
         <v>136</v>
@@ -8690,23 +8744,23 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>534</v>
+        <v>92</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="4"/>
-        <v>294</v>
+        <v>497</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="4"/>
-        <v>663</v>
+        <v>34</v>
       </c>
       <c r="I95" t="s">
         <v>137</v>
@@ -8728,19 +8782,19 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>468</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>121</v>
+        <v>447</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="4"/>
-        <v>811</v>
+        <v>454</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="4"/>
-        <v>211</v>
+        <v>638</v>
       </c>
       <c r="I96" t="s">
         <v>137</v>
@@ -8758,23 +8812,23 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>968</v>
+        <v>804</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="4"/>
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="4"/>
-        <v>262</v>
+        <v>658</v>
       </c>
       <c r="I97" t="s">
         <v>136</v>
@@ -8792,23 +8846,23 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <f t="shared" ref="E98:H114" ca="1" si="5">FLOOR(RAND()*1000,1)</f>
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>951</v>
+        <v>321</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>996</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="I98" t="s">
         <v>135</v>
@@ -8826,23 +8880,23 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>956</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>678</v>
+        <v>970</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>842</v>
+        <v>888</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>694</v>
+        <v>233</v>
       </c>
       <c r="I99" t="s">
         <v>137</v>
@@ -8860,23 +8914,23 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>524</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>432</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>417</v>
+        <v>958</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>805</v>
+        <v>177</v>
       </c>
       <c r="I100" t="s">
         <v>136</v>
@@ -8894,23 +8948,23 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>929</v>
+        <v>132</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>945</v>
+        <v>886</v>
       </c>
       <c r="I101" t="s">
         <v>137</v>
@@ -8928,23 +8982,23 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="5"/>
-        <v>879</v>
+        <v>393</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
-        <v>840</v>
+        <v>223</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>333</v>
+        <v>760</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>670</v>
+        <v>241</v>
       </c>
       <c r="I102" t="s">
         <v>137</v>
@@ -8966,19 +9020,19 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="5"/>
-        <v>851</v>
+        <v>327</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="5"/>
-        <v>682</v>
+        <v>935</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>489</v>
+        <v>764</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>820</v>
+        <v>373</v>
       </c>
       <c r="I103" t="s">
         <v>135</v>
@@ -9000,19 +9054,19 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="5"/>
-        <v>603</v>
+        <v>275</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
-        <v>706</v>
+        <v>968</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>642</v>
+        <v>844</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>149</v>
+        <v>502</v>
       </c>
       <c r="I104" t="s">
         <v>136</v>
@@ -9030,23 +9084,23 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="5"/>
-        <v>744</v>
+        <v>947</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
-        <v>793</v>
+        <v>958</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>381</v>
+        <v>545</v>
       </c>
       <c r="I105" t="s">
         <v>136</v>
@@ -9068,19 +9122,19 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="5"/>
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
-        <v>970</v>
+        <v>463</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
-        <v>518</v>
+        <v>421</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="I106" t="s">
         <v>135</v>
@@ -9102,19 +9156,19 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="5"/>
-        <v>967</v>
+        <v>158</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
-        <v>759</v>
+        <v>705</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>569</v>
+        <v>484</v>
       </c>
       <c r="I107" t="s">
         <v>137</v>
@@ -9132,23 +9186,23 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="5"/>
-        <v>614</v>
+        <v>66</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="5"/>
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="5"/>
-        <v>948</v>
+        <v>515</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>879</v>
       </c>
       <c r="I108" t="s">
         <v>136</v>
@@ -9166,23 +9220,23 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="5"/>
-        <v>476</v>
+        <v>46</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="5"/>
-        <v>653</v>
+        <v>866</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="5"/>
-        <v>284</v>
+        <v>659</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="I109" t="s">
         <v>136</v>
@@ -9200,23 +9254,23 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="5"/>
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="5"/>
-        <v>607</v>
+        <v>367</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="5"/>
-        <v>977</v>
+        <v>41</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>832</v>
+        <v>651</v>
       </c>
       <c r="I110" t="s">
         <v>135</v>
@@ -9238,19 +9292,19 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="5"/>
-        <v>781</v>
+        <v>548</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="5"/>
-        <v>841</v>
+        <v>453</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="5"/>
-        <v>711</v>
+        <v>65</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>604</v>
+        <v>450</v>
       </c>
       <c r="I111" t="s">
         <v>136</v>
@@ -9268,23 +9322,23 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="5"/>
-        <v>344</v>
+        <v>571</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="5"/>
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="5"/>
-        <v>635</v>
+        <v>970</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>407</v>
+        <v>803</v>
       </c>
       <c r="I112" t="s">
         <v>136</v>
@@ -9302,23 +9356,23 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
-        <v>964</v>
+        <v>711</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="5"/>
-        <v>314</v>
+        <v>734</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="5"/>
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>498</v>
+        <v>696</v>
       </c>
       <c r="I113" t="s">
         <v>137</v>
@@ -9336,23 +9390,23 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="5"/>
-        <v>665</v>
+        <v>337</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="5"/>
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="5"/>
-        <v>488</v>
+        <v>313</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="I114" t="s">
         <v>137</v>
@@ -9372,8 +9426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFF63F0-A9F6-43EA-885D-27246F528A50}">
   <dimension ref="B3:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9432,11 +9486,11 @@
       </c>
       <c r="I4" t="str">
         <f ca="1">IF(J4&gt;0.8,"A",IF(J4&gt;0.3,"B","C"))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J4">
         <f ca="1">RAND()</f>
-        <v>4.0948606093345385E-2</v>
+        <v>0.83427982673773093</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -9463,11 +9517,11 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I68" ca="1" si="0">IF(J5&gt;0.8,"A",IF(J5&gt;0.3,"B","C"))</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J68" ca="1" si="1">RAND()</f>
-        <v>0.44325431638361112</v>
+        <v>0.83338588712634087</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -9494,11 +9548,11 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86627386330357492</v>
+        <v>0.47438971148726383</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -9525,11 +9579,11 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18301144339586284</v>
+        <v>0.70838047650233105</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -9560,7 +9614,7 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40431847888405703</v>
+        <v>0.40656477488829024</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -9591,7 +9645,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6767605980445176</v>
+        <v>0.54709681661392473</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -9622,7 +9676,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50372807834064748</v>
+        <v>0.37924737102760664</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -9653,7 +9707,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.696251089622135</v>
+        <v>0.78285316706279762</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -9680,11 +9734,11 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85270160181380428</v>
+        <v>0.78363606375516071</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -9711,11 +9765,11 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82768089736063966</v>
+        <v>2.9897457994253696E-2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -9742,11 +9796,11 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28766880705916886</v>
+        <v>0.36415905248743963</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -9777,7 +9831,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50731016595897427</v>
+        <v>0.56908306028685707</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -9805,7 +9859,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54486294629316012</v>
+        <v>0.39302314367791502</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -9836,7 +9890,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32720963146335291</v>
+        <v>0.62394685499445102</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -9863,11 +9917,11 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12784832114314804</v>
+        <v>0.5816412486580439</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -9894,11 +9948,11 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99476650445051484</v>
+        <v>0.17802746402554914</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -9925,11 +9979,11 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9445694326339823</v>
+        <v>0.66487807301055091</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -9960,7 +10014,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63792177698700225</v>
+        <v>0.45079464539717784</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -9987,11 +10041,11 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59296957150887275</v>
+        <v>0.15724987725445394</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -10018,11 +10072,11 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1747193577062469E-2</v>
+        <v>0.3645095109980816</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -10053,7 +10107,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24321302676033063</v>
+        <v>0.13422351137915223</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -10084,7 +10138,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14933541815614615</v>
+        <v>0.20357919301596161</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -10115,7 +10169,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40845466387508078</v>
+        <v>0.63805419454825885</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -10142,11 +10196,11 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71980930360152939</v>
+        <v>0.2278916044488255</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -10177,7 +10231,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49559199792693676</v>
+        <v>0.65418468676258079</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -10205,7 +10259,7 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6617324827828911</v>
+        <v>0.34778126086429761</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -10232,11 +10286,11 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85942221880533831</v>
+        <v>0.62028592784814551</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -10263,11 +10317,11 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69480657688775482</v>
+        <v>0.95439557914579642</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -10294,11 +10348,11 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75945967354965127</v>
+        <v>0.93509059540139017</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -10325,11 +10379,11 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70583808198726694</v>
+        <v>0.11132928598661229</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -10360,7 +10414,7 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98970761022255671</v>
+        <v>0.81900558100028731</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -10387,11 +10441,11 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58169776278238428</v>
+        <v>0.18798191500937544</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -10422,7 +10476,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17421820456139769</v>
+        <v>9.6163840979711424E-2</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -10453,7 +10507,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38269359035668604</v>
+        <v>0.63842366980201748</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -10480,11 +10534,11 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44683964106761254</v>
+        <v>0.93275243801428753</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -10505,11 +10559,11 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31235346488017879</v>
+        <v>0.94018643342789165</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -10536,11 +10590,11 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63104654914173131</v>
+        <v>0.10735243060670974</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -10571,7 +10625,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51082739048136649</v>
+        <v>0.41482259999964655</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -10602,7 +10656,7 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44122145867239704</v>
+        <v>0.3583688614475713</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -10633,7 +10687,7 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38658112512436182</v>
+        <v>0.7117254802220504</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -10657,11 +10711,11 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86712565520582607</v>
+        <v>0.66955979141347088</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -10688,11 +10742,11 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69810796686050447</v>
+        <v>0.22981390227191101</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -10719,11 +10773,11 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94448750103798329</v>
+        <v>0.64567562967355963</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -10754,7 +10808,7 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58845994690947545</v>
+        <v>0.5956870520921036</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -10781,11 +10835,11 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12670323158208974</v>
+        <v>0.37517727729104788</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -10812,11 +10866,11 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59998038786675401</v>
+        <v>0.14880181036607232</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -10840,11 +10894,11 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94181823989538827</v>
+        <v>0.74808292133479126</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -10871,11 +10925,11 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69006316398677958</v>
+        <v>0.99746292248491164</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -10902,11 +10956,11 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42956478156783318</v>
+        <v>0.26841225611136565</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -10933,11 +10987,11 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93416494956621465</v>
+        <v>0.11895907226298896</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -10964,11 +11018,11 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80900168658641214</v>
+        <v>0.15336341329786674</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -10992,11 +11046,11 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81148454716396967</v>
+        <v>0.63691729943381858</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -11023,11 +11077,11 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69048621936059995</v>
+        <v>0.26164272284033774</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -11058,7 +11112,7 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2719332323593302</v>
+        <v>6.0068287726434577E-2</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -11085,11 +11139,11 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5737416271610747E-2</v>
+        <v>0.44251039609876253</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -11120,7 +11174,7 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6240641533770549</v>
+        <v>0.38883989521807183</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -11144,11 +11198,11 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41371911984597465</v>
+        <v>0.985551144496986</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -11179,7 +11233,7 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50994626283346489</v>
+        <v>0.54826218020988315</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -11206,11 +11260,11 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8155137962990634</v>
+        <v>0.20902461661311478</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -11237,11 +11291,11 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47859138125464129</v>
+        <v>0.2000654254577422</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -11268,11 +11322,11 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83196779827747036</v>
+        <v>0.41076291375211738</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -11303,7 +11357,7 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16441904761439385</v>
+        <v>0.21281456678338517</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -11334,7 +11388,7 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73325191938468115</v>
+        <v>0.7218452502739402</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -11365,7 +11419,7 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0904140769744108E-2</v>
+        <v>8.4928179202726772E-3</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -11392,11 +11446,11 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80174742636311547</v>
+        <v>8.1395940386890575E-2</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -11427,7 +11481,7 @@
       </c>
       <c r="J69">
         <f t="shared" ref="J69:J114" ca="1" si="3">RAND()</f>
-        <v>0.94766497547780315</v>
+        <v>0.91663979900774251</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -11454,11 +11508,11 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0474040384445731E-2</v>
+        <v>0.30061624695543998</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -11489,7 +11543,7 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38514818291006359</v>
+        <v>0.6130536914807081</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -11516,11 +11570,11 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0286148312952204E-2</v>
+        <v>0.32763626434949866</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -11547,11 +11601,11 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.171910794598225</v>
+        <v>0.47053768790995509</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -11578,11 +11632,11 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86453763197127287</v>
+        <v>0.78775734655225749</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -11609,11 +11663,11 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81054782936817749</v>
+        <v>0.79530473046805239</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -11640,11 +11694,11 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44570032892288636</v>
+        <v>0.98999084703196971</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -11675,7 +11729,7 @@
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90522052485856297</v>
+        <v>0.92747276191433203</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -11702,11 +11756,11 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81628089533382475</v>
+        <v>0.30888320947995407</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -11733,11 +11787,11 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97483761373824063</v>
+        <v>0.7881131125659514</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -11768,7 +11822,7 @@
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48085328194107613</v>
+        <v>0.73922477845032653</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -11795,11 +11849,11 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61370348869637115</v>
+        <v>0.28001174193089517</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -11830,7 +11884,7 @@
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3805081427147377E-2</v>
+        <v>0.16552060319243833</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -11861,7 +11915,7 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73799625760133003</v>
+        <v>0.74697867178625044</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -11888,11 +11942,11 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82634642474253905</v>
+        <v>0.50725984690554748</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -11923,7 +11977,7 @@
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51458343472882828</v>
+        <v>0.33543956972386202</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -11950,11 +12004,11 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84034958474727217</v>
+        <v>0.63934445892426084</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -11985,7 +12039,7 @@
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42313511001987392</v>
+        <v>0.54443641071796889</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -12012,11 +12066,11 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88263462504660162</v>
+        <v>0.41338103527464209</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -12047,7 +12101,7 @@
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46884297802222608</v>
+        <v>0.74370516673541376</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -12074,11 +12128,11 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81393933591477474</v>
+        <v>0.39295084979165862</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -12105,11 +12159,11 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="3"/>
-        <v>2.755237761292384E-3</v>
+        <v>0.36963297769198378</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -12136,11 +12190,11 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90153531094858919</v>
+        <v>3.8369156819500927E-2</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -12167,11 +12221,11 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96372685782028278</v>
+        <v>0.44036407114870491</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -12202,7 +12256,7 @@
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20073703967203249</v>
+        <v>0.24113610497227489</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -12233,7 +12287,7 @@
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74447089376953135</v>
+        <v>0.44859117884104982</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -12260,11 +12314,11 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4107066960986079E-2</v>
+        <v>0.41462655795889447</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -12280,27 +12334,27 @@
       </c>
       <c r="E97">
         <f t="shared" ref="E97:H114" ca="1" si="5">FLOOR(RAND()*1000,1)</f>
-        <v>352</v>
+        <v>701</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="5"/>
-        <v>696</v>
+        <v>574</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="5"/>
-        <v>917</v>
+        <v>772</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9269844311258404E-2</v>
+        <v>0.43114368477002885</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -12312,31 +12366,31 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>783</v>
+        <v>482</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>837</v>
+        <v>785</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34026332270162196</v>
+        <v>0.85099957055590958</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -12348,23 +12402,23 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>685</v>
+        <v>404</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>957</v>
+        <v>783</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>696</v>
+        <v>15</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12372,7 +12426,7 @@
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62644659019783977</v>
+        <v>0.49456886025848834</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -12384,31 +12438,31 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>886</v>
+        <v>490</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>644</v>
+        <v>831</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>452</v>
+        <v>126</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38609637639131267</v>
+        <v>0.8287451125909332</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -12420,31 +12474,31 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>596</v>
+        <v>283</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>595</v>
+        <v>916</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>938</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>691</v>
+        <v>260</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90574888206234783</v>
+        <v>0.70980484227691099</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -12460,19 +12514,19 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="5"/>
-        <v>394</v>
+        <v>47</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
-        <v>816</v>
+        <v>26</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>731</v>
+        <v>443</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>773</v>
+        <v>686</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12480,7 +12534,7 @@
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54470279306833902</v>
+        <v>0.630265610910411</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -12496,27 +12550,27 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="5"/>
-        <v>664</v>
+        <v>935</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="5"/>
-        <v>277</v>
+        <v>830</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>428</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>924</v>
+        <v>606</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.588534387309817</v>
+        <v>0.14028819695194816</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -12528,23 +12582,23 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="5"/>
-        <v>952</v>
+        <v>241</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
-        <v>864</v>
+        <v>401</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>821</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>185</v>
+        <v>785</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12552,7 +12606,7 @@
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0530216986629601E-2</v>
+        <v>0.18654824590424735</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -12564,23 +12618,23 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="5"/>
-        <v>775</v>
+        <v>619</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
+        <v>748</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
-        <v>991</v>
+        <v>906</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>927</v>
+        <v>538</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12588,7 +12642,7 @@
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8698725563708281E-2</v>
+        <v>0.10905016638924381</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -12600,31 +12654,31 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="5"/>
-        <v>916</v>
+        <v>600</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
-        <v>854</v>
+        <v>778</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>491</v>
+        <v>283</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="3"/>
-        <v>0.270094370047543</v>
+        <v>0.50289773247121672</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -12640,27 +12694,27 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="5"/>
-        <v>641</v>
+        <v>484</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
-        <v>992</v>
+        <v>536</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
-        <v>891</v>
+        <v>952</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>314</v>
+        <v>502</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7999574090159554E-2</v>
+        <v>0.8957070863187121</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -12672,23 +12726,23 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="5"/>
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="5"/>
-        <v>430</v>
+        <v>837</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="5"/>
-        <v>855</v>
+        <v>734</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12696,7 +12750,7 @@
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70366889487775819</v>
+        <v>0.63207432550312348</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -12708,31 +12762,31 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>570</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="5"/>
-        <v>959</v>
+        <v>871</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="5"/>
-        <v>724</v>
+        <v>887</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>944</v>
+        <v>458</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23251888812761701</v>
+        <v>0.7175537286466187</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -12744,31 +12798,31 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="5"/>
-        <v>522</v>
+        <v>693</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="5"/>
-        <v>854</v>
+        <v>576</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="5"/>
-        <v>304</v>
+        <v>676</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>963</v>
+        <v>81</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57082058662913027</v>
+        <v>0.23340442969544417</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -12780,31 +12834,31 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="5"/>
-        <v>474</v>
+        <v>799</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>455</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>704</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4054225306547661E-2</v>
+        <v>0.88389977884153748</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -12816,23 +12870,23 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="5"/>
-        <v>345</v>
+        <v>487</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="5"/>
-        <v>507</v>
+        <v>790</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>475</v>
+        <v>68</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12840,7 +12894,7 @@
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33100755553866856</v>
+        <v>0.6929700825982833</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -12856,27 +12910,27 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
-        <v>863</v>
+        <v>480</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="5"/>
-        <v>710</v>
+        <v>194</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="5"/>
-        <v>889</v>
+        <v>605</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>826</v>
+        <v>108</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93378333867111052</v>
+        <v>2.8368725364694702E-3</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -12888,31 +12942,31 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="5"/>
-        <v>589</v>
+        <v>146</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="5"/>
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="5"/>
-        <v>418</v>
+        <v>544</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>997</v>
+        <v>303</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77956279630326453</v>
+        <v>0.95602725949734013</v>
       </c>
     </row>
   </sheetData>

--- a/doc/特征工程流程图v1.8.xlsx
+++ b/doc/特征工程流程图v1.8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59A6BD67-9966-4A84-9B97-310F8C336C1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC4939D0-04AB-4B1F-8646-FADE7B0F1957}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="824" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="267">
   <si>
     <t>过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3699,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42112F6E-780D-4F54-AA89-CB41E0B2B8FB}">
   <dimension ref="B4:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="C90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117:F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5287,62 +5287,86 @@
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C113" s="34" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D114" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="E115" s="43">
+        <v>7</v>
+      </c>
+      <c r="F115" s="43">
+        <v>12</v>
+      </c>
+      <c r="G115" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="21"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H115" s="21"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E116" s="43">
+        <v>7</v>
+      </c>
+      <c r="F116" s="43">
+        <v>12</v>
+      </c>
+      <c r="G116" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="21"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H116" s="21"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E117" s="43">
+        <v>3</v>
+      </c>
+      <c r="F117" s="43">
+        <v>12</v>
+      </c>
+      <c r="G117" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F117" s="20"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H117" s="20"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="35" t="s">
         <v>37</v>
       </c>
@@ -5351,7 +5375,7 @@
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
         <v>195</v>
       </c>
@@ -5368,7 +5392,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
         <v>37</v>
       </c>
@@ -5381,7 +5405,7 @@
       </c>
       <c r="F121" s="21"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
         <v>37</v>
       </c>
@@ -5394,7 +5418,7 @@
       </c>
       <c r="F122" s="21"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="33" t="s">
         <v>156</v>
       </c>
@@ -5686,19 +5710,19 @@
       </c>
       <c r="E4">
         <f ca="1">FLOOR(RAND()*1000,1)</f>
-        <v>482</v>
+        <v>141</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:H19" ca="1" si="0">FLOOR(RAND()*1000,1)</f>
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>863</v>
+        <v>990</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>634</v>
       </c>
       <c r="I4" t="s">
         <v>135</v>
@@ -5720,11 +5744,11 @@
       </c>
       <c r="E5">
         <f t="shared" ref="E5:H68" ca="1" si="2">FLOOR(RAND()*1000,1)</f>
-        <v>281</v>
+        <v>635</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>996</v>
+        <v>260</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
@@ -5732,7 +5756,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>472</v>
       </c>
       <c r="I5" t="s">
         <v>136</v>
@@ -5750,23 +5774,23 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>597</v>
+        <v>911</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>517</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="I6" t="s">
         <v>136</v>
@@ -5784,23 +5808,23 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>805</v>
+        <v>551</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>721</v>
+        <v>507</v>
       </c>
       <c r="I7" t="s">
         <v>137</v>
@@ -5818,23 +5842,23 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>511</v>
+        <v>994</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>811</v>
+        <v>309</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="I8" t="s">
         <v>136</v>
@@ -5852,23 +5876,23 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>426</v>
+        <v>739</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>754</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>593</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>677</v>
       </c>
       <c r="I9" t="s">
         <v>136</v>
@@ -5886,23 +5910,23 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>595</v>
+        <v>429</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>988</v>
+        <v>578</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>444</v>
+        <v>552</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
         <v>136</v>
@@ -5920,23 +5944,23 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>201</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>438</v>
+        <v>630</v>
       </c>
       <c r="I11" t="s">
         <v>137</v>
@@ -5954,23 +5978,23 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>503</v>
+        <v>966</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>896</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>675</v>
+        <v>902</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>692</v>
+        <v>275</v>
       </c>
       <c r="I12" t="s">
         <v>136</v>
@@ -5988,23 +6012,23 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>677</v>
+        <v>461</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>703</v>
+        <v>472</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>958</v>
+        <v>168</v>
       </c>
       <c r="I13" t="s">
         <v>136</v>
@@ -6022,23 +6046,23 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>810</v>
+        <v>392</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>481</v>
+        <v>229</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>730</v>
+        <v>490</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>611</v>
+        <v>916</v>
       </c>
       <c r="I14" t="s">
         <v>136</v>
@@ -6056,23 +6080,23 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>626</v>
+        <v>365</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>943</v>
+        <v>620</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>423</v>
+        <v>715</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>915</v>
+        <v>484</v>
       </c>
       <c r="I15" t="s">
         <v>136</v>
@@ -6090,19 +6114,19 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>866</v>
+        <v>617</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>972</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>750</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>841</v>
+        <v>380</v>
       </c>
       <c r="I16" t="s">
         <v>136</v>
@@ -6120,23 +6144,23 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>642</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>924</v>
+        <v>384</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>908</v>
+        <v>236</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>970</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>135</v>
@@ -6154,23 +6178,23 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>331</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>318</v>
+        <v>870</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>818</v>
+        <v>898</v>
       </c>
       <c r="I18" t="s">
         <v>136</v>
@@ -6188,23 +6212,23 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>374</v>
+        <v>182</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>692</v>
+        <v>492</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>618</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>706</v>
+        <v>539</v>
       </c>
       <c r="I19" t="s">
         <v>136</v>
@@ -6222,23 +6246,23 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>866</v>
+        <v>705</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>604</v>
+        <v>965</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>930</v>
+        <v>587</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="I20" t="s">
         <v>136</v>
@@ -6256,23 +6280,23 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>491</v>
+        <v>728</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>910</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>900</v>
+        <v>522</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="I21" t="s">
         <v>136</v>
@@ -6290,23 +6314,23 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>344</v>
+        <v>997</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>789</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
         <v>135</v>
@@ -6324,23 +6348,23 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>925</v>
+        <v>523</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="I23" t="s">
         <v>137</v>
@@ -6358,23 +6382,23 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>799</v>
+        <v>860</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>359</v>
+        <v>568</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>935</v>
+        <v>724</v>
       </c>
       <c r="I24" t="s">
         <v>136</v>
@@ -6392,23 +6416,23 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
+        <v>379</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>837</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>762</v>
+        <v>509</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>936</v>
+        <v>612</v>
       </c>
       <c r="I25" t="s">
         <v>135</v>
@@ -6426,23 +6450,23 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>424</v>
+        <v>321</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>546</v>
+        <v>380</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>771</v>
+        <v>367</v>
       </c>
       <c r="I26" t="s">
         <v>136</v>
@@ -6460,23 +6484,23 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>372</v>
+        <v>674</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>571</v>
+        <v>104</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>794</v>
+        <v>501</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>508</v>
       </c>
       <c r="I27" t="s">
         <v>135</v>
@@ -6494,23 +6518,23 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>495</v>
+        <v>941</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>459</v>
+        <v>693</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>355</v>
+        <v>740</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="I28" t="s">
         <v>135</v>
@@ -6528,19 +6552,19 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>576</v>
+        <v>91</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>550</v>
+        <v>466</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>511</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
         <v>137</v>
@@ -6558,23 +6582,23 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>574</v>
+        <v>18</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>311</v>
+        <v>894</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>589</v>
+        <v>316</v>
       </c>
       <c r="I30" t="s">
         <v>135</v>
@@ -6592,23 +6616,23 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>394</v>
+        <v>662</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>902</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>969</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="I31" t="s">
         <v>135</v>
@@ -6626,23 +6650,23 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>479</v>
+        <v>336</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <v>967</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>568</v>
+        <v>292</v>
       </c>
       <c r="I32" t="s">
         <v>137</v>
@@ -6660,23 +6684,23 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>651</v>
+        <v>149</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>654</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>978</v>
+        <v>283</v>
       </c>
       <c r="I33" t="s">
         <v>136</v>
@@ -6694,23 +6718,23 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>411</v>
+        <v>851</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>415</v>
+        <v>590</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>568</v>
+        <v>146</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
         <v>136</v>
@@ -6728,23 +6752,23 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>703</v>
+        <v>226</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>589</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>162</v>
+        <v>600</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>783</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s">
         <v>136</v>
@@ -6766,19 +6790,19 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>362</v>
+        <v>638</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>843</v>
+        <v>58</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>970</v>
       </c>
       <c r="I36" t="s">
         <v>136</v>
@@ -6800,19 +6824,19 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>765</v>
+        <v>982</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="I37" t="s">
         <v>136</v>
@@ -6830,23 +6854,23 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>946</v>
+        <v>741</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>566</v>
+        <v>767</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
         <v>136</v>
@@ -6864,15 +6888,15 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>382</v>
+        <v>620</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>182</v>
       </c>
       <c r="I39" t="s">
         <v>136</v>
@@ -6890,23 +6914,23 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>523</v>
+        <v>273</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>681</v>
+        <v>477</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>695</v>
+        <v>758</v>
       </c>
       <c r="I40" t="s">
         <v>135</v>
@@ -6924,23 +6948,23 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>563</v>
+        <v>183</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <v>834</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>865</v>
       </c>
       <c r="I41" t="s">
         <v>137</v>
@@ -6958,23 +6982,23 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>366</v>
+        <v>866</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>969</v>
+        <v>785</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>900</v>
+        <v>367</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
         <v>136</v>
@@ -6992,23 +7016,23 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>265</v>
+        <v>799</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>745</v>
+        <v>164</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>886</v>
+        <v>744</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>730</v>
+        <v>461</v>
       </c>
       <c r="I43" t="s">
         <v>136</v>
@@ -7026,19 +7050,19 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>584</v>
+        <v>513</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>861</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>857</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>650</v>
+        <v>852</v>
       </c>
       <c r="I44" t="s">
         <v>136</v>
@@ -7060,19 +7084,19 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
+        <v>677</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
         <v>223</v>
       </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="2"/>
-        <v>335</v>
-      </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>657</v>
+        <v>849</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>456</v>
+        <v>558</v>
       </c>
       <c r="I45" t="s">
         <v>136</v>
@@ -7090,23 +7114,23 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>301</v>
+        <v>849</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>808</v>
+        <v>203</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>946</v>
+        <v>518</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>576</v>
       </c>
       <c r="I46" t="s">
         <v>136</v>
@@ -7124,23 +7148,23 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>514</v>
+        <v>371</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>635</v>
+        <v>734</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>671</v>
       </c>
       <c r="I47" t="s">
         <v>136</v>
@@ -7162,19 +7186,19 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>903</v>
+        <v>842</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>754</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>377</v>
+        <v>454</v>
       </c>
       <c r="I48" t="s">
         <v>135</v>
@@ -7192,23 +7216,23 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>185</v>
+        <v>528</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>699</v>
+        <v>915</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>791</v>
+        <v>459</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="I49" t="s">
         <v>135</v>
@@ -7226,19 +7250,19 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>452</v>
+        <v>792</v>
       </c>
       <c r="I50" t="s">
         <v>135</v>
@@ -7256,23 +7280,23 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>548</v>
+        <v>300</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>977</v>
       </c>
       <c r="I51" t="s">
         <v>137</v>
@@ -7290,23 +7314,23 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>848</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>871</v>
+        <v>225</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="I52" t="s">
         <v>136</v>
@@ -7324,23 +7348,23 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>522</v>
+        <v>291</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>795</v>
+        <v>269</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I53" t="s">
         <v>135</v>
@@ -7358,23 +7382,23 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>594</v>
+        <v>331</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>769</v>
+        <v>912</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>264</v>
+        <v>483</v>
       </c>
       <c r="I54" t="s">
         <v>135</v>
@@ -7396,15 +7420,15 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>442</v>
+        <v>922</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>917</v>
+        <v>779</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>834</v>
+        <v>72</v>
       </c>
       <c r="I55" t="s">
         <v>135</v>
@@ -7422,23 +7446,23 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>604</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>915</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
+        <v>525</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>569</v>
+        <v>437</v>
       </c>
       <c r="I56" t="s">
         <v>136</v>
@@ -7456,23 +7480,23 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>745</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>702</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>385</v>
+        <v>930</v>
       </c>
       <c r="I57" t="s">
         <v>136</v>
@@ -7490,23 +7514,23 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>457</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="I58" t="s">
         <v>135</v>
@@ -7524,23 +7548,23 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>583</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>791</v>
+        <v>337</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>809</v>
+        <v>650</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>976</v>
+        <v>841</v>
       </c>
       <c r="I59" t="s">
         <v>136</v>
@@ -7558,19 +7582,19 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>636</v>
+        <v>724</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>467</v>
+        <v>830</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>496</v>
       </c>
       <c r="I60" t="s">
         <v>137</v>
@@ -7588,23 +7612,23 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>979</v>
+        <v>588</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>420</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>473</v>
+        <v>395</v>
       </c>
       <c r="I61" t="s">
         <v>136</v>
@@ -7622,23 +7646,23 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>722</v>
+        <v>936</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>640</v>
+        <v>954</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>906</v>
+        <v>594</v>
       </c>
       <c r="I62" t="s">
         <v>136</v>
@@ -7656,23 +7680,23 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>785</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>457</v>
+        <v>984</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="I63" t="s">
         <v>135</v>
@@ -7690,23 +7714,23 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>585</v>
+        <v>369</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>881</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>959</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>581</v>
       </c>
       <c r="I64" t="s">
         <v>136</v>
@@ -7724,23 +7748,23 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>885</v>
+        <v>576</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>511</v>
+        <v>159</v>
       </c>
       <c r="I65" t="s">
         <v>135</v>
@@ -7758,23 +7782,23 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>371</v>
+        <v>591</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>866</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>906</v>
+        <v>24</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>428</v>
+        <v>899</v>
       </c>
       <c r="I66" t="s">
         <v>136</v>
@@ -7792,23 +7816,23 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="2"/>
-        <v>638</v>
+        <v>449</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="I67" t="s">
         <v>136</v>
@@ -7826,23 +7850,23 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>653</v>
+        <v>759</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="2"/>
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>868</v>
+        <v>412</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>611</v>
       </c>
       <c r="I68" t="s">
         <v>136</v>
@@ -7860,23 +7884,23 @@
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D114" ca="1" si="3">FLOOR(RAND()*10,1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:H97" ca="1" si="4">FLOOR(RAND()*1000,1)</f>
-        <v>577</v>
+        <v>238</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="4"/>
-        <v>106</v>
+        <v>735</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="4"/>
-        <v>951</v>
+        <v>681</v>
       </c>
       <c r="I69" t="s">
         <v>137</v>
@@ -7894,23 +7918,23 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>475</v>
+        <v>968</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="4"/>
-        <v>404</v>
+        <v>785</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="4"/>
-        <v>617</v>
+        <v>291</v>
       </c>
       <c r="I70" t="s">
         <v>136</v>
@@ -7928,23 +7952,23 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>583</v>
+        <v>827</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>421</v>
+        <v>646</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="4"/>
-        <v>691</v>
+        <v>369</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="4"/>
-        <v>463</v>
+        <v>951</v>
       </c>
       <c r="I71" t="s">
         <v>136</v>
@@ -7962,23 +7986,23 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>597</v>
+        <v>390</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>375</v>
+        <v>721</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="4"/>
-        <v>112</v>
+        <v>494</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="4"/>
-        <v>890</v>
+        <v>738</v>
       </c>
       <c r="I72" t="s">
         <v>135</v>
@@ -7996,23 +8020,23 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="4"/>
+        <v>782</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="4"/>
         <v>9</v>
       </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="4"/>
-        <v>238</v>
-      </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="4"/>
-        <v>133</v>
-      </c>
       <c r="G73">
         <f t="shared" ca="1" si="4"/>
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="4"/>
-        <v>342</v>
+        <v>24</v>
       </c>
       <c r="I73" t="s">
         <v>135</v>
@@ -8030,23 +8054,23 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>595</v>
+        <v>14</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="4"/>
-        <v>774</v>
+        <v>449</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="4"/>
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="I74" t="s">
         <v>136</v>
@@ -8064,23 +8088,23 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>878</v>
+        <v>116</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="4"/>
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="I75" t="s">
         <v>136</v>
@@ -8098,23 +8122,23 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>380</v>
+        <v>234</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>429</v>
+        <v>180</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="4"/>
-        <v>738</v>
+        <v>299</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="4"/>
-        <v>281</v>
+        <v>542</v>
       </c>
       <c r="I76" t="s">
         <v>136</v>
@@ -8132,23 +8156,23 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>372</v>
+        <v>780</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>135</v>
+        <v>937</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="4"/>
-        <v>911</v>
+        <v>284</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="I77" t="s">
         <v>137</v>
@@ -8166,23 +8190,23 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>945</v>
+        <v>130</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="4"/>
-        <v>625</v>
+        <v>147</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="4"/>
-        <v>990</v>
+        <v>109</v>
       </c>
       <c r="I78" t="s">
         <v>135</v>
@@ -8200,23 +8224,23 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>964</v>
+        <v>767</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="4"/>
-        <v>959</v>
+        <v>316</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="4"/>
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="I79" t="s">
         <v>136</v>
@@ -8234,23 +8258,23 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>887</v>
+        <v>689</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="4"/>
-        <v>562</v>
+        <v>920</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="4"/>
-        <v>809</v>
+        <v>430</v>
       </c>
       <c r="I80" t="s">
         <v>135</v>
@@ -8268,23 +8292,23 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="4"/>
-        <v>790</v>
+        <v>453</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="4"/>
-        <v>642</v>
+        <v>984</v>
       </c>
       <c r="I81" t="s">
         <v>137</v>
@@ -8302,23 +8326,23 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>593</v>
+        <v>376</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="4"/>
-        <v>428</v>
+        <v>136</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="4"/>
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="I82" t="s">
         <v>136</v>
@@ -8340,19 +8364,19 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>665</v>
+        <v>871</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>775</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="4"/>
-        <v>174</v>
+        <v>781</v>
       </c>
       <c r="I83" t="s">
         <v>137</v>
@@ -8370,23 +8394,23 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>490</v>
+        <v>987</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>536</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="4"/>
-        <v>807</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="4"/>
-        <v>990</v>
+        <v>501</v>
       </c>
       <c r="I84" t="s">
         <v>137</v>
@@ -8404,23 +8428,23 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>454</v>
+        <v>554</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="4"/>
-        <v>768</v>
+        <v>294</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="4"/>
-        <v>639</v>
+        <v>593</v>
       </c>
       <c r="I85" t="s">
         <v>135</v>
@@ -8438,23 +8462,23 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>702</v>
+        <v>230</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>617</v>
+        <v>778</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="4"/>
-        <v>791</v>
+        <v>363</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="4"/>
-        <v>183</v>
+        <v>895</v>
       </c>
       <c r="I86" t="s">
         <v>136</v>
@@ -8472,23 +8496,23 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>683</v>
+        <v>303</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>992</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="4"/>
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="4"/>
-        <v>346</v>
+        <v>549</v>
       </c>
       <c r="I87" t="s">
         <v>136</v>
@@ -8506,23 +8530,23 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>455</v>
+        <v>564</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>539</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>828</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="4"/>
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="I88" t="s">
         <v>135</v>
@@ -8540,23 +8564,23 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>417</v>
+        <v>143</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>987</v>
+        <v>583</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="4"/>
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="4"/>
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="I89" t="s">
         <v>137</v>
@@ -8574,23 +8598,23 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>560</v>
+        <v>692</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>187</v>
+        <v>909</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="4"/>
-        <v>992</v>
+        <v>767</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="4"/>
-        <v>304</v>
+        <v>794</v>
       </c>
       <c r="I90" t="s">
         <v>136</v>
@@ -8608,23 +8632,23 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>298</v>
+        <v>996</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="4"/>
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="4"/>
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I91" t="s">
         <v>136</v>
@@ -8642,23 +8666,23 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>487</v>
+        <v>354</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="4"/>
-        <v>187</v>
+        <v>569</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="4"/>
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="I92" t="s">
         <v>135</v>
@@ -8676,23 +8700,23 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>682</v>
+        <v>3</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>450</v>
+        <v>998</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="4"/>
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="4"/>
-        <v>483</v>
+        <v>279</v>
       </c>
       <c r="I93" t="s">
         <v>136</v>
@@ -8710,23 +8734,23 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>124</v>
+        <v>720</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="4"/>
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="4"/>
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="I94" t="s">
         <v>136</v>
@@ -8744,23 +8768,23 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>853</v>
+        <v>890</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>719</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="4"/>
-        <v>497</v>
+        <v>783</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>515</v>
       </c>
       <c r="I95" t="s">
         <v>137</v>
@@ -8778,23 +8802,23 @@
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>468</v>
+        <v>860</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>447</v>
+        <v>976</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="4"/>
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="4"/>
-        <v>638</v>
+        <v>991</v>
       </c>
       <c r="I96" t="s">
         <v>137</v>
@@ -8812,23 +8836,23 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>804</v>
+        <v>408</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>231</v>
+        <v>717</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="4"/>
-        <v>233</v>
+        <v>485</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="4"/>
-        <v>658</v>
+        <v>296</v>
       </c>
       <c r="I97" t="s">
         <v>136</v>
@@ -8846,23 +8870,23 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <f t="shared" ref="E98:H114" ca="1" si="5">FLOOR(RAND()*1000,1)</f>
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>996</v>
+        <v>164</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>254</v>
+        <v>798</v>
       </c>
       <c r="I98" t="s">
         <v>135</v>
@@ -8880,23 +8904,23 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>956</v>
+        <v>154</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>970</v>
+        <v>594</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>888</v>
+        <v>138</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>906</v>
       </c>
       <c r="I99" t="s">
         <v>137</v>
@@ -8914,23 +8938,23 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>524</v>
+        <v>282</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>958</v>
+        <v>55</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="I100" t="s">
         <v>136</v>
@@ -8948,23 +8972,23 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>886</v>
+        <v>139</v>
       </c>
       <c r="I101" t="s">
         <v>137</v>
@@ -8982,23 +9006,23 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="5"/>
-        <v>393</v>
+        <v>868</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>760</v>
+        <v>132</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>470</v>
       </c>
       <c r="I102" t="s">
         <v>137</v>
@@ -9016,23 +9040,23 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="5"/>
-        <v>327</v>
+        <v>998</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="5"/>
-        <v>935</v>
+        <v>814</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>764</v>
+        <v>976</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>373</v>
+        <v>609</v>
       </c>
       <c r="I103" t="s">
         <v>135</v>
@@ -9050,23 +9074,23 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="5"/>
-        <v>275</v>
+        <v>605</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
-        <v>968</v>
+        <v>517</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>844</v>
+        <v>424</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>502</v>
+        <v>911</v>
       </c>
       <c r="I104" t="s">
         <v>136</v>
@@ -9084,23 +9108,23 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="5"/>
-        <v>947</v>
+        <v>553</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
-        <v>958</v>
+        <v>252</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
-        <v>447</v>
+        <v>621</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>545</v>
+        <v>691</v>
       </c>
       <c r="I105" t="s">
         <v>136</v>
@@ -9118,23 +9142,23 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="5"/>
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
-        <v>463</v>
+        <v>746</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>661</v>
+        <v>905</v>
       </c>
       <c r="I106" t="s">
         <v>135</v>
@@ -9152,23 +9176,23 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="5"/>
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
-        <v>289</v>
+        <v>748</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
-        <v>705</v>
+        <v>632</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>484</v>
+        <v>662</v>
       </c>
       <c r="I107" t="s">
         <v>137</v>
@@ -9186,23 +9210,23 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>589</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="5"/>
-        <v>515</v>
+        <v>408</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>879</v>
+        <v>146</v>
       </c>
       <c r="I108" t="s">
         <v>136</v>
@@ -9220,23 +9244,23 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>808</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="5"/>
-        <v>866</v>
+        <v>204</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="5"/>
-        <v>659</v>
+        <v>959</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>330</v>
+        <v>189</v>
       </c>
       <c r="I109" t="s">
         <v>136</v>
@@ -9254,23 +9278,23 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="5"/>
-        <v>755</v>
+        <v>249</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="5"/>
-        <v>367</v>
+        <v>774</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>651</v>
+        <v>892</v>
       </c>
       <c r="I110" t="s">
         <v>135</v>
@@ -9288,23 +9312,23 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="5"/>
-        <v>548</v>
+        <v>485</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="5"/>
-        <v>453</v>
+        <v>848</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>873</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="I111" t="s">
         <v>136</v>
@@ -9322,23 +9346,23 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="5"/>
-        <v>571</v>
+        <v>796</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="5"/>
-        <v>573</v>
+        <v>895</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="5"/>
-        <v>970</v>
+        <v>733</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>803</v>
+        <v>411</v>
       </c>
       <c r="I112" t="s">
         <v>136</v>
@@ -9356,23 +9380,23 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
-        <v>711</v>
+        <v>129</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="5"/>
-        <v>734</v>
+        <v>98</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="5"/>
-        <v>377</v>
+        <v>864</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>696</v>
+        <v>948</v>
       </c>
       <c r="I113" t="s">
         <v>137</v>
@@ -9390,23 +9414,23 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="5"/>
-        <v>337</v>
+        <v>928</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="5"/>
-        <v>720</v>
+        <v>7</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="5"/>
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>272</v>
+        <v>619</v>
       </c>
       <c r="I114" t="s">
         <v>137</v>
@@ -9486,11 +9510,11 @@
       </c>
       <c r="I4" t="str">
         <f ca="1">IF(J4&gt;0.8,"A",IF(J4&gt;0.3,"B","C"))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J4">
         <f ca="1">RAND()</f>
-        <v>0.83427982673773093</v>
+        <v>0.21961607980896058</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -9517,11 +9541,11 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" ref="I5:I68" ca="1" si="0">IF(J5&gt;0.8,"A",IF(J5&gt;0.3,"B","C"))</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J68" ca="1" si="1">RAND()</f>
-        <v>0.83338588712634087</v>
+        <v>0.68718304816384512</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -9552,7 +9576,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47438971148726383</v>
+        <v>0.3389212942951445</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -9579,11 +9603,11 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70838047650233105</v>
+        <v>2.878000871751496E-2</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -9614,7 +9638,7 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40656477488829024</v>
+        <v>0.56599572998223302</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -9645,7 +9669,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54709681661392473</v>
+        <v>0.62329037335040582</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -9676,7 +9700,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37924737102760664</v>
+        <v>0.32915613631534602</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -9707,7 +9731,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78285316706279762</v>
+        <v>0.4666537407019159</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -9734,11 +9758,11 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78363606375516071</v>
+        <v>0.2990024379783468</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -9765,11 +9789,11 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9897457994253696E-2</v>
+        <v>0.34781424322427412</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -9800,7 +9824,7 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36415905248743963</v>
+        <v>0.30061180873512228</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -9827,11 +9851,11 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56908306028685707</v>
+        <v>0.92701532048883706</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -9855,11 +9879,11 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39302314367791502</v>
+        <v>0.8150071872179192</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -9886,11 +9910,11 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62394685499445102</v>
+        <v>0.84949785668405531</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -9917,11 +9941,11 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5816412486580439</v>
+        <v>0.96246175542081613</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -9948,11 +9972,11 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17802746402554914</v>
+        <v>0.65970587957250126</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -9983,7 +10007,7 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66487807301055091</v>
+        <v>0.3750620407339369</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -10014,7 +10038,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45079464539717784</v>
+        <v>0.69402972596956336</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -10045,7 +10069,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15724987725445394</v>
+        <v>6.7479564260106484E-2</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -10072,11 +10096,11 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3645095109980816</v>
+        <v>0.28567342226913206</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -10103,11 +10127,11 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13422351137915223</v>
+        <v>0.37994406259342539</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -10134,11 +10158,11 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20357919301596161</v>
+        <v>0.72267339786225626</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -10169,7 +10193,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63805419454825885</v>
+        <v>0.52155231319762019</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -10196,11 +10220,11 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2278916044488255</v>
+        <v>0.77375171371013007</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -10231,7 +10255,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65418468676258079</v>
+        <v>0.42537471918145653</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -10255,11 +10279,11 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34778126086429761</v>
+        <v>0.81916982695124663</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -10290,7 +10314,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62028592784814551</v>
+        <v>0.4840303223625122</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -10317,11 +10341,11 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95439557914579642</v>
+        <v>0.71895473641839602</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -10348,11 +10372,11 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93509059540139017</v>
+        <v>0.44843008090001368</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -10379,11 +10403,11 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11132928598661229</v>
+        <v>0.56643551688190419</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -10410,11 +10434,11 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81900558100028731</v>
+        <v>0.71904141001692801</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -10445,7 +10469,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18798191500937544</v>
+        <v>0.18407288848297787</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -10472,11 +10496,11 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6163840979711424E-2</v>
+        <v>0.72804969730439495</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -10503,11 +10527,11 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63842366980201748</v>
+        <v>2.7338977698886602E-2</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -10534,11 +10558,11 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93275243801428753</v>
+        <v>3.8189127452176952E-2</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -10559,11 +10583,11 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94018643342789165</v>
+        <v>0.61303604624679431</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -10594,7 +10618,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10735243060670974</v>
+        <v>0.21552167719846438</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -10625,7 +10649,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41482259999964655</v>
+        <v>0.32929348059310115</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -10656,7 +10680,7 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3583688614475713</v>
+        <v>0.68937478479952774</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -10687,7 +10711,7 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7117254802220504</v>
+        <v>0.48827574318696199</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -10711,11 +10735,11 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66955979141347088</v>
+        <v>0.84273736116796993</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -10746,7 +10770,7 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22981390227191101</v>
+        <v>0.1290301080344376</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -10773,11 +10797,11 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64567562967355963</v>
+        <v>7.5898268551845449E-2</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -10804,11 +10828,11 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5956870520921036</v>
+        <v>0.88154352483346587</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -10839,7 +10863,7 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37517727729104788</v>
+        <v>0.37297670162180196</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -10866,11 +10890,11 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14880181036607232</v>
+        <v>0.98361784647695738</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -10898,7 +10922,7 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74808292133479126</v>
+        <v>0.37120790488429367</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -10925,11 +10949,11 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99746292248491164</v>
+        <v>0.57465046729577396</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -10960,7 +10984,7 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26841225611136565</v>
+        <v>0.10632509925941014</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -10987,11 +11011,11 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11895907226298896</v>
+        <v>0.32953101403165319</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -11022,7 +11046,7 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15336341329786674</v>
+        <v>0.26110335959511832</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -11050,7 +11074,7 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63691729943381858</v>
+        <v>0.7703339501361316</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -11077,11 +11101,11 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26164272284033774</v>
+        <v>0.97095856215947607</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -11108,11 +11132,11 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0068287726434577E-2</v>
+        <v>0.44225208580478914</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -11139,11 +11163,11 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44251039609876253</v>
+        <v>0.9959167807685414</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -11170,11 +11194,11 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38883989521807183</v>
+        <v>1.0471041973719397E-2</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -11198,11 +11222,11 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.985551144496986</v>
+        <v>0.13815166169583704</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -11233,7 +11257,7 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54826218020988315</v>
+        <v>0.75685971869599999</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -11260,11 +11284,11 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20902461661311478</v>
+        <v>0.63737505411017559</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -11291,11 +11315,11 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2000654254577422</v>
+        <v>0.43876655962600308</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -11322,11 +11346,11 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41076291375211738</v>
+        <v>1.8074400513197975E-2</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -11357,7 +11381,7 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21281456678338517</v>
+        <v>0.18578543746609866</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -11384,11 +11408,11 @@
       </c>
       <c r="I66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7218452502739402</v>
+        <v>0.91699347077597793</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -11415,11 +11439,11 @@
       </c>
       <c r="I67" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4928179202726772E-3</v>
+        <v>0.35290328979501306</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -11450,7 +11474,7 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1395940386890575E-2</v>
+        <v>7.5967521183981312E-2</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -11477,11 +11501,11 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" ref="I69:I114" ca="1" si="2">IF(J69&gt;0.8,"A",IF(J69&gt;0.3,"B","C"))</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J69">
         <f t="shared" ref="J69:J114" ca="1" si="3">RAND()</f>
-        <v>0.91663979900774251</v>
+        <v>0.60832174316407883</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -11508,11 +11532,11 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30061624695543998</v>
+        <v>0.14183816131197624</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -11539,11 +11563,11 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6130536914807081</v>
+        <v>0.12909175352090863</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -11570,11 +11594,11 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32763626434949866</v>
+        <v>0.86939107029044804</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -11605,7 +11629,7 @@
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47053768790995509</v>
+        <v>0.51938108067575595</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -11636,7 +11660,7 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78775734655225749</v>
+        <v>0.34582243498194998</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -11667,7 +11691,7 @@
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79530473046805239</v>
+        <v>0.65552498679510107</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -11694,11 +11718,11 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98999084703196971</v>
+        <v>0.72669913165849376</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -11729,7 +11753,7 @@
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92747276191433203</v>
+        <v>0.92001064670975996</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -11760,7 +11784,7 @@
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30888320947995407</v>
+        <v>0.42260044258763485</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -11791,7 +11815,7 @@
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7881131125659514</v>
+        <v>0.68102212613468172</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -11822,7 +11846,7 @@
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73922477845032653</v>
+        <v>0.75889438504354367</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -11853,7 +11877,7 @@
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28001174193089517</v>
+        <v>5.5550779335092337E-2</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -11880,11 +11904,11 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16552060319243833</v>
+        <v>0.95411252018894932</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -11915,7 +11939,7 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74697867178625044</v>
+        <v>0.39811657232737763</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -11946,7 +11970,7 @@
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50725984690554748</v>
+        <v>0.64469898577441653</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -11973,11 +11997,11 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33543956972386202</v>
+        <v>4.9934267039716485E-2</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -12004,11 +12028,11 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63934445892426084</v>
+        <v>0.92334001125629261</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -12039,7 +12063,7 @@
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54443641071796889</v>
+        <v>0.48612590810194001</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -12066,11 +12090,11 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41338103527464209</v>
+        <v>0.81629224373627396</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -12097,11 +12121,11 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74370516673541376</v>
+        <v>0.93675305714427071</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -12132,7 +12156,7 @@
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39295084979165862</v>
+        <v>0.77831407753522874</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -12163,7 +12187,7 @@
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36963297769198378</v>
+        <v>0.43228605723935909</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -12190,11 +12214,11 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8369156819500927E-2</v>
+        <v>0.44898788056013084</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -12225,7 +12249,7 @@
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44036407114870491</v>
+        <v>0.31759526557437023</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -12252,11 +12276,11 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24113610497227489</v>
+        <v>0.63402664968835054</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -12283,11 +12307,11 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44859117884104982</v>
+        <v>0.22468828089812221</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -12318,7 +12342,7 @@
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41462655795889447</v>
+        <v>0.4314809855051992</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -12330,23 +12354,23 @@
       </c>
       <c r="D97">
         <f t="shared" ref="D97:D114" ca="1" si="4">FLOOR(RAND()*10,1)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <f t="shared" ref="E97:H114" ca="1" si="5">FLOOR(RAND()*1000,1)</f>
-        <v>701</v>
+        <v>372</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>845</v>
+        <v>244</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="5"/>
-        <v>574</v>
+        <v>84</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="5"/>
-        <v>772</v>
+        <v>193</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12354,7 +12378,7 @@
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43114368477002885</v>
+        <v>0.40897089437235823</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -12366,31 +12390,31 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>323</v>
+        <v>491</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>514</v>
+        <v>219</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>482</v>
+        <v>564</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>785</v>
+        <v>890</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85099957055590958</v>
+        <v>0.5138187554989927</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -12402,31 +12426,31 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>404</v>
+        <v>15</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>382</v>
+        <v>802</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>783</v>
+        <v>410</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>978</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49456886025848834</v>
+        <v>0.84122022021379717</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -12438,31 +12462,31 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>506</v>
+        <v>396</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>831</v>
+        <v>496</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8287451125909332</v>
+        <v>0.46840982590146507</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -12474,23 +12498,23 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>916</v>
+        <v>126</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>938</v>
+        <v>991</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12498,7 +12522,7 @@
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70980484227691099</v>
+        <v>0.45097081073367706</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -12514,27 +12538,27 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>958</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>771</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>686</v>
+        <v>759</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.630265610910411</v>
+        <v>0.91796568479782048</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -12546,31 +12570,31 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="5"/>
-        <v>935</v>
+        <v>630</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="5"/>
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>428</v>
+        <v>667</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14028819695194816</v>
+        <v>0.96000530386796823</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -12582,31 +12606,31 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>606</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="5"/>
-        <v>401</v>
+        <v>855</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>821</v>
+        <v>13</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>785</v>
+        <v>857</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18654824590424735</v>
+        <v>0.5710204746514248</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -12618,31 +12642,31 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="5"/>
-        <v>619</v>
+        <v>858</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="5"/>
-        <v>748</v>
+        <v>815</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>538</v>
+        <v>349</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10905016638924381</v>
+        <v>0.5315256961998609</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -12654,23 +12678,23 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="5"/>
-        <v>600</v>
+        <v>892</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="5"/>
-        <v>778</v>
+        <v>521</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
-        <v>802</v>
+        <v>182</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>283</v>
+        <v>774</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12678,7 +12702,7 @@
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50289773247121672</v>
+        <v>0.63945467225719754</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -12690,31 +12714,31 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="5"/>
-        <v>484</v>
+        <v>966</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="5"/>
-        <v>536</v>
+        <v>702</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
-        <v>952</v>
+        <v>228</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>502</v>
+        <v>368</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8957070863187121</v>
+        <v>0.67868203326439192</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -12726,23 +12750,23 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="5"/>
-        <v>790</v>
+        <v>700</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="5"/>
-        <v>837</v>
+        <v>550</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="5"/>
-        <v>734</v>
+        <v>57</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>534</v>
+        <v>814</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12750,7 +12774,7 @@
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63207432550312348</v>
+        <v>0.73630831712549383</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -12762,23 +12786,23 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="5"/>
-        <v>570</v>
+        <v>853</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="5"/>
-        <v>871</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="5"/>
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>458</v>
+        <v>598</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12786,7 +12810,7 @@
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7175537286466187</v>
+        <v>0.30050828877655578</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -12798,23 +12822,23 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="5"/>
-        <v>693</v>
+        <v>916</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="5"/>
-        <v>576</v>
+        <v>364</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="5"/>
-        <v>676</v>
+        <v>921</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12822,7 +12846,7 @@
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23340442969544417</v>
+        <v>7.7145395901533687E-2</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -12834,31 +12858,31 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="5"/>
-        <v>799</v>
+        <v>427</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="5"/>
-        <v>455</v>
+        <v>326</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="5"/>
-        <v>704</v>
+        <v>510</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88389977884153748</v>
+        <v>0.55279954426786249</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -12870,23 +12894,23 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="5"/>
-        <v>487</v>
+        <v>162</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="5"/>
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="5"/>
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>993</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12894,7 +12918,7 @@
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6929700825982833</v>
+        <v>0.45234847828117719</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -12910,19 +12934,19 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="5"/>
-        <v>480</v>
+        <v>638</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="5"/>
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="5"/>
-        <v>605</v>
+        <v>425</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -12930,7 +12954,7 @@
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8368725364694702E-3</v>
+        <v>0.20556616866458477</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -12942,31 +12966,31 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="5"/>
-        <v>146</v>
+        <v>930</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="5"/>
-        <v>271</v>
+        <v>565</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="5"/>
-        <v>544</v>
+        <v>709</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>303</v>
+        <v>767</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95602725949734013</v>
+        <v>0.15238675372871047</v>
       </c>
     </row>
   </sheetData>
